--- a/output/results_epex.xlsx
+++ b/output/results_epex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidsanders/Documents/GitHub/masterarbeit-flex-kpis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854F75DF-DC5A-DF47-857C-E290D4588329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E652C7E8-F0B5-234E-95C6-175C35989A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="27320" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="1220" windowWidth="27340" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intraday_Weeks" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,25 @@
     <sheet name="KPI_DayAhead" sheetId="5" r:id="rId5"/>
     <sheet name="KPI_Intraday" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Kostenvergleich Intraday</t>
   </si>
@@ -40,6 +53,12 @@
   </si>
   <si>
     <t>Tmin</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Delta</t>
   </si>
   <si>
     <t>Kostenvergleich Day-Ahead</t>
@@ -63,19 +82,34 @@
     <t>Total Cost DayAhead</t>
   </si>
   <si>
-    <t>Total Delta</t>
+    <t>Schnell Cost Tmin</t>
   </si>
   <si>
-    <t>Delta Nachtlader</t>
+    <t>Schnell Cost Konstant</t>
   </si>
   <si>
-    <t>Delta Schnelllader</t>
+    <t>Schnell Cost DayAhead</t>
+  </si>
+  <si>
+    <t>Nacht Cost Tmin</t>
+  </si>
+  <si>
+    <t>Nacht Cost Konstant</t>
+  </si>
+  <si>
+    <t>Nacht Cost DayAhead</t>
   </si>
   <si>
     <t>Kostenvergleich Stunde Intraday</t>
   </si>
   <si>
     <t>Total Cost Intraday</t>
+  </si>
+  <si>
+    <t>Schnell Cost Intraday</t>
+  </si>
+  <si>
+    <t>Nacht Cost Intraday</t>
   </si>
   <si>
     <t>Durchschnittliche Kosten pro Ladevorgang (Day-Ahead) in Euro</t>
@@ -109,6 +143,15 @@
   </si>
   <si>
     <t>Intraday-Strategie</t>
+  </si>
+  <si>
+    <t>Delta abs</t>
+  </si>
+  <si>
+    <t>Delta rel</t>
+  </si>
+  <si>
+    <t>delta rel</t>
   </si>
 </sst>
 </file>
@@ -161,6 +204,3155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1361012685914261"/>
+                  <c:y val="-0.1949300087489064"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Intraday_Weeks!$B$8:$BB$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>-8637.7086644000028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7940.6579216000046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7212.4790086999947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8073.5134221000017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8879.8052225999891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7529.5544863000105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7084.9524871000031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9134.0840366000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8115.354576000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6384.3996252999987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8991.0623871000025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15857.026359700005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-19993.015308800008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13955.4818844</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-18698.748921799997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9574.9054278999974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-12119.692852300004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11597.378699599998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9536.1906655999883</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-24045.506766099999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-14447.306364599999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11179.189168200008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-21221.865041799996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-17999.511659599997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-26126.241911900008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-24247.104130300006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-12428.0111851</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9215.3003979999921</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-52150.577752299992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10697.378340100002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6358.7607180999939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10435.813665200001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-21799.186073099983</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-25298.453899200009</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-77319.696085999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15463.750328199996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8908.3267522000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-15469.431114299998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-13314.620487300004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-12229.331613500002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-12029.446765799996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-12271.664237700001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9234.8365366999988</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-10418.13614269999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-14824.497972399997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8553.9351200000037</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-9539.9616314999985</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-8746.1389146999918</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-12395.009198000014</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-57599.21314300003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8829.1244869999991</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7382.8071788999832</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3136.3851571999985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FE1-5041-9ADB-6D75621D3EC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="320963840"/>
+        <c:axId val="1616275312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="320963840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616275312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1616275312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320963840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13169860017497811"/>
+                  <c:y val="-0.28943751822688829"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Intraday_Weeks!$B$11:$BB$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>-0.17339006551374248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10219202993694454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.12534218949024678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.20237800771033643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.19152242805338338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.16198982409242946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14499653822254122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.19840179543229941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15367709612804692</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13605415878190974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.17060819984259246</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.26196257082439833</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.29988157854363395</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.32078288859412651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.36704563045995209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.19379517704672033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.18959488009475745</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.21752298312911622</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.20310579484704117</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.31997256872574864</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.20989243584673145</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.17794603772290729</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.23947550065139078</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.29995685019225549</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.2909665020702199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.32464720038205519</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.2806487513925795</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.15961071489173184</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.43977948907330366</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.17182075091200599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.10725548756664105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.16070837385576475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.25824904648893432</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.34064934793132795</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.46557233880087967</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.18452628094766432</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19024936594034147</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.23007321591805674</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.25523785164942459</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.19985813595640811</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.2118871606342041</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.20392754261151902</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.13121490732491337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.13480253538816944</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.13789465138747115</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9.8398096671449498E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.12766139068468052</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.12272757222312303</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.14708077870572778</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.27038164655465591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.23542865796890078</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-9.4300067756821426E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.15726839011993399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E97C-3C4D-AC55-BDFE9039B567}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1742855264"/>
+        <c:axId val="1615722911"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1742855264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615722911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1615722911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1742855264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Abs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8233814523184596E-2"/>
+          <c:y val="0.21392351997666958"/>
+          <c:w val="0.84465507436570431"/>
+          <c:h val="0.76064814814814818"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12587904636920391"/>
+                  <c:y val="-0.17849737532808399"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DayAhead_Weeks!$B$8:$BB$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>-5022.2430279999971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4436.964301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3844.8427159999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4736.5591360000035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4797.3227810000026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4164.6802210000096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2971.7502729999978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3410.4058099999966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2960.5747180000035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3376.8389100000059</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4114.0435960000032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5744.0065680000043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5400.5637849999839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4410.8668580000012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9219.6068319999977</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6340.1588439999905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6708.0243609999961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6391.3176490000042</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6639.4049019999948</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6803.3030810000055</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7370.5132040000171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9014.0191869999908</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-12287.985707</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10128.300245000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9003.0563309999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-34858.708217000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10136.003866999985</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10205.657292999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10918.522379000016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6760.6645990000106</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6759.3924680000055</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9671.9265420000011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10592.713403999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9032.4939200000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11259.634626999992</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15595.647165000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-7815.8402599999972</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4431.0912420000022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-10297.345226000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5787.634739000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8452.6622970000026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8860.7734829999972</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6261.2371959999873</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-6075.6413969999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-15672.777652000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5563.0648590000055</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-5792.8161970000074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5220.655488000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-8797.1069259999786</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-17128.81990799999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7091.5137429999959</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3814.7221310000023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-640.55819100000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BAD-5542-B2FF-C86A41752AD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="386262208"/>
+        <c:axId val="386133856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="386262208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386133856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="386133856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386262208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Relativ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.1698600174978125E-2"/>
+                  <c:y val="-0.27489246135899681"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DayAhead_Weeks!$B$11:$BB$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>-0.10593152660368577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.0870016088832468E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.3127997297183658E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1163981055664719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.10196966011657105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.9272555194296999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.1673899846210967E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.8943084498733338E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.1515561006551644E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.713030482857496E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.1554353387413014E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.10183355612109279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.11176682501322677</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.11960628936860407</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.19307599164240574</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.11808369079661996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.10203768147250902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.1395868853244594</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.10891309010285455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.16788392842841993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.11198113553828204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.13291343400908162</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.16968733969816674</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.17340510282718358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.12864445260924962</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.30078291569885651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.20580957082786511</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.16040063254768466</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.17204010391750535</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.10825826881195966</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.10342301600480508</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.13989631882807607</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.13298374269012192</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.16142256986581038</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.14274515569393231</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.18153520493312081</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.12927892204090641</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.5732057935381292E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.20358230157577628</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.10542893196831504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.14339690733404553</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.1510447905903588</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.3044773603916933E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.6950377103403911E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.13916010150385094</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.235155576138729E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.6529426839374692E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7.0441116315862251E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.10441714387477286</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.12644482468537999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.17174310428892303</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-5.015835155460302E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-6.8655985252299434E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA24-7F4A-B1D5-9F1A8D9DE43A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="386908912"/>
+        <c:axId val="386229040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="386908912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386229040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="386229040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386908912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2228850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7F48D1-21EF-C33E-138A-B37BA910D747}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CAB572-B20E-5CCB-6A0C-30376517FFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,21 +3672,21 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{E82097FD-1C65-FB42-9DAE-CEF73F325C62}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9C42007C-4411-2E46-8889-D74DCAA81C89}">
   <we:reference id="df76232d-21a6-4463-9d19-0518ac5aab5d" version="1.1.0.0" store="EXCatalog" storeType="EXCatalog"/>
   <we:alternateReferences>
     <we:reference id="WA200000556" version="1.1.0.0" store="" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties>
     <we:property name="Office.AutoShowTaskpaneWithDocument" value="true"/>
-    <we:property name="documentId" value="&quot;042dc467-7332-4ca9-b12d-251c233304c1&quot;"/>
+    <we:property name="documentId" value="&quot;712983cd-3d99-48bf-92d5-9b78b0aa93cc&quot;"/>
   </we:properties>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
@@ -513,24 +3705,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB7"/>
+  <dimension ref="A1:BC19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -694,509 +3886,1428 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>41178920.903200001</v>
+        <v>411789.20903199998</v>
       </c>
       <c r="C5">
-        <v>69762641.704600006</v>
+        <v>697626.41704600002</v>
       </c>
       <c r="D5">
-        <v>50329830.073600002</v>
+        <v>503298.300736</v>
       </c>
       <c r="E5">
-        <v>31819721.586199999</v>
+        <v>318197.21586200001</v>
       </c>
       <c r="F5">
-        <v>37484504.758500002</v>
+        <v>374845.04758500011</v>
       </c>
       <c r="G5">
-        <v>38952096.620399997</v>
+        <v>389520.96620399988</v>
       </c>
       <c r="H5">
-        <v>41777955.372299999</v>
+        <v>417779.55372299999</v>
       </c>
       <c r="I5">
-        <v>36904229.360200003</v>
+        <v>369042.29360199999</v>
       </c>
       <c r="J5">
-        <v>44692479.385399997</v>
+        <v>446924.79385399999</v>
       </c>
       <c r="K5">
-        <v>40541028.325300001</v>
+        <v>405410.283253</v>
       </c>
       <c r="L5">
-        <v>43708997.723700002</v>
+        <v>437089.97723700001</v>
       </c>
       <c r="M5">
-        <v>44674622.531199999</v>
+        <v>446746.22531200002</v>
       </c>
       <c r="N5">
-        <v>46676686.130999997</v>
+        <v>466766.86130999989</v>
       </c>
       <c r="O5">
-        <v>29548964.2086</v>
+        <v>295489.64208600001</v>
       </c>
       <c r="P5">
-        <v>32245186.572999999</v>
+        <v>322451.86573000002</v>
       </c>
       <c r="Q5">
-        <v>39832440.894199997</v>
+        <v>398324.40894200001</v>
       </c>
       <c r="R5">
-        <v>51804463.993299998</v>
+        <v>518044.63993300003</v>
       </c>
       <c r="S5">
-        <v>41718268.836900003</v>
+        <v>417182.68836899998</v>
       </c>
       <c r="T5">
-        <v>37415648.757700004</v>
+        <v>374156.48757700011</v>
       </c>
       <c r="U5">
-        <v>51103143.825599998</v>
+        <v>511031.43825599999</v>
       </c>
       <c r="V5">
-        <v>54384647.042000003</v>
+        <v>543846.47042000003</v>
       </c>
       <c r="W5">
-        <v>51644289.855300002</v>
+        <v>516442.89855300001</v>
       </c>
       <c r="X5">
-        <v>67396239.875300005</v>
+        <v>673962.39875300007</v>
       </c>
       <c r="Y5">
-        <v>42007491.5079</v>
+        <v>420074.915079</v>
       </c>
       <c r="Z5">
-        <v>63664994.281999998</v>
+        <v>636649.94282</v>
       </c>
       <c r="AA5">
-        <v>50440446.237499997</v>
+        <v>504404.46237499989</v>
       </c>
       <c r="AB5">
-        <v>31855140.3466</v>
+        <v>318551.40346599999</v>
       </c>
       <c r="AC5">
-        <v>48520800.867200002</v>
+        <v>485208.00867200003</v>
       </c>
       <c r="AD5">
-        <v>66432892.027500004</v>
+        <v>664328.92027500004</v>
       </c>
       <c r="AE5">
-        <v>51561564.6765</v>
+        <v>515615.64676500001</v>
       </c>
       <c r="AF5">
-        <v>52927350.066200003</v>
+        <v>529273.50066200003</v>
       </c>
       <c r="AG5">
-        <v>54500526.706</v>
+        <v>545005.26705999998</v>
       </c>
       <c r="AH5">
-        <v>62612301.092</v>
+        <v>626123.01092000003</v>
       </c>
       <c r="AI5">
-        <v>48966927.945299998</v>
+        <v>489669.279453</v>
       </c>
       <c r="AJ5">
-        <v>88754809.725799993</v>
+        <v>887548.09725799994</v>
       </c>
       <c r="AK5">
-        <v>68338677.4278</v>
+        <v>683386.774278</v>
       </c>
       <c r="AL5">
-        <v>37916148.631300002</v>
+        <v>379161.48631299997</v>
       </c>
       <c r="AM5">
-        <v>51767561.477700002</v>
+        <v>517675.61477699998</v>
       </c>
       <c r="AN5">
-        <v>38850920.012500003</v>
+        <v>388509.20012499997</v>
       </c>
       <c r="AO5">
-        <v>48960729.801700003</v>
+        <v>489607.29801700002</v>
       </c>
       <c r="AP5">
-        <v>44743444.662799999</v>
+        <v>447434.44662800001</v>
       </c>
       <c r="AQ5">
-        <v>47904926.332400002</v>
+        <v>479049.263324</v>
       </c>
       <c r="AR5">
-        <v>61144640.345700003</v>
+        <v>611446.40345700004</v>
       </c>
       <c r="AS5">
-        <v>66866286.681400001</v>
+        <v>668662.86681400007</v>
       </c>
       <c r="AT5">
-        <v>92681469.976600006</v>
+        <v>926814.69976600003</v>
       </c>
       <c r="AU5">
-        <v>78377981.343400002</v>
+        <v>783779.81343400001</v>
       </c>
       <c r="AV5">
-        <v>65188674.648699999</v>
+        <v>651886.74648700003</v>
       </c>
       <c r="AW5">
-        <v>62518522.776799999</v>
+        <v>625185.22776799998</v>
       </c>
       <c r="AX5">
-        <v>71878471.722299993</v>
+        <v>718784.7172229999</v>
       </c>
       <c r="AY5">
-        <v>155430087.7617</v>
+        <v>1554300.8776169999</v>
       </c>
       <c r="AZ5">
-        <v>28673210.8836</v>
+        <v>286732.10883600003</v>
       </c>
       <c r="BA5">
-        <v>70907774.731800005</v>
+        <v>709077.74731800007</v>
       </c>
       <c r="BB5">
-        <v>16806498.182599999</v>
+        <v>168064.981826</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>47625687.291599996</v>
+        <v>476256.87291600002</v>
       </c>
       <c r="C6">
-        <v>76328104.867300004</v>
+        <v>763281.04867300007</v>
       </c>
       <c r="D6">
-        <v>55982586.505000003</v>
+        <v>559825.86505000002</v>
       </c>
       <c r="E6">
-        <v>37945615.3411</v>
+        <v>379456.15341099998</v>
       </c>
       <c r="F6">
-        <v>44249670.090999998</v>
+        <v>442496.70091000001</v>
       </c>
       <c r="G6">
-        <v>44683557.376500003</v>
+        <v>446835.57376499998</v>
       </c>
       <c r="H6">
-        <v>47574666.864200003</v>
+        <v>475746.66864200012</v>
       </c>
       <c r="I6">
-        <v>44646603.505400002</v>
+        <v>446466.03505399998</v>
       </c>
       <c r="J6">
-        <v>50892984.088100001</v>
+        <v>508929.84088099998</v>
       </c>
       <c r="K6">
-        <v>45816250.725400001</v>
+        <v>458162.507254</v>
       </c>
       <c r="L6">
-        <v>50940743.564099997</v>
+        <v>509407.43564099999</v>
       </c>
       <c r="M6">
-        <v>57177288.816200003</v>
+        <v>571772.88816199999</v>
       </c>
       <c r="N6">
-        <v>61952953.275899999</v>
+        <v>619529.53275899997</v>
       </c>
       <c r="O6">
-        <v>41735719.564499997</v>
+        <v>417357.19564500003</v>
       </c>
       <c r="P6">
-        <v>48526303.790100001</v>
+        <v>485263.037901</v>
       </c>
       <c r="Q6">
-        <v>47688191.911600001</v>
+        <v>476881.919116</v>
       </c>
       <c r="R6">
-        <v>61796468.597900003</v>
+        <v>617964.68597900006</v>
       </c>
       <c r="S6">
-        <v>52866150.997000001</v>
+        <v>528661.50997000001</v>
       </c>
       <c r="T6">
-        <v>45621439.652000003</v>
+        <v>456214.39652000001</v>
       </c>
       <c r="U6">
-        <v>71133620.704500005</v>
+        <v>711336.20704500005</v>
       </c>
       <c r="V6">
-        <v>66312637.618000001</v>
+        <v>663126.37618000002</v>
       </c>
       <c r="W6">
-        <v>61003998.355499998</v>
+        <v>610039.98355499993</v>
       </c>
       <c r="X6">
-        <v>88866629.928599998</v>
+        <v>888666.29928599996</v>
       </c>
       <c r="Y6">
-        <v>55950288.181199998</v>
+        <v>559502.88181199995</v>
       </c>
       <c r="Z6">
-        <v>83132198.404100001</v>
+        <v>831321.98404100002</v>
       </c>
       <c r="AA6">
-        <v>69847847.427699998</v>
+        <v>698478.47427699994</v>
       </c>
       <c r="AB6">
-        <v>41953097.844800003</v>
+        <v>419530.97844799998</v>
       </c>
       <c r="AC6">
-        <v>56667220.248899996</v>
+        <v>566672.20248900005</v>
       </c>
       <c r="AD6">
-        <v>105514711.4267</v>
+        <v>1055147.114267</v>
       </c>
       <c r="AE6">
-        <v>61347673.137999997</v>
+        <v>613476.73138000001</v>
       </c>
       <c r="AF6">
-        <v>58427085.947499998</v>
+        <v>584270.85947499995</v>
       </c>
       <c r="AG6">
-        <v>63245206.516199999</v>
+        <v>632452.06516200001</v>
       </c>
       <c r="AH6">
-        <v>79853834.787300006</v>
+        <v>798538.34787300008</v>
       </c>
       <c r="AI6">
-        <v>68682262.5977</v>
+        <v>686822.62597699999</v>
       </c>
       <c r="AJ6">
-        <v>147488335.8558</v>
+        <v>1474883.3585580001</v>
       </c>
       <c r="AK6">
-        <v>80922196.457200006</v>
+        <v>809221.96457200008</v>
       </c>
       <c r="AL6">
-        <v>44916396.9027</v>
+        <v>449163.96902700001</v>
       </c>
       <c r="AM6">
-        <v>65773643.8803</v>
+        <v>657736.43880300003</v>
       </c>
       <c r="AN6">
-        <v>50168660.612599999</v>
+        <v>501686.606126</v>
       </c>
       <c r="AO6">
-        <v>58658557.804799996</v>
+        <v>586585.578048</v>
       </c>
       <c r="AP6">
-        <v>53771677.275700003</v>
+        <v>537716.77275700006</v>
       </c>
       <c r="AQ6">
-        <v>58176651.7434</v>
+        <v>581766.51743400004</v>
       </c>
       <c r="AR6">
-        <v>68642600.925600007</v>
+        <v>686426.00925600005</v>
       </c>
       <c r="AS6">
-        <v>74463812.454899997</v>
+        <v>744638.12454899994</v>
       </c>
       <c r="AT6">
-        <v>103667379.8712</v>
+        <v>1036673.798712</v>
       </c>
       <c r="AU6">
-        <v>84619064.391100004</v>
+        <v>846190.64391099999</v>
       </c>
       <c r="AV6">
-        <v>72368436.2958</v>
+        <v>723684.36295800004</v>
       </c>
       <c r="AW6">
-        <v>70116190.649599999</v>
+        <v>701161.90649600001</v>
       </c>
       <c r="AX6">
-        <v>80828020.298700005</v>
+        <v>808280.202987</v>
       </c>
       <c r="AY6">
-        <v>195206798.4059</v>
+        <v>1952067.9840589999</v>
       </c>
       <c r="AZ6">
-        <v>36021385.960299999</v>
+        <v>360213.85960299999</v>
       </c>
       <c r="BA6">
-        <v>76583219.882300004</v>
+        <v>765832.19882300007</v>
       </c>
       <c r="BB6">
-        <v>18951747.5779</v>
+        <v>189517.475779</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>49816629.567599997</v>
+        <v>498166.29567600001</v>
       </c>
       <c r="C7">
-        <v>77703299.626200005</v>
+        <v>777032.99626200006</v>
       </c>
       <c r="D7">
-        <v>57542309.0823</v>
+        <v>575423.09082299995</v>
       </c>
       <c r="E7">
-        <v>39893235.008299999</v>
+        <v>398932.35008300003</v>
       </c>
       <c r="F7">
-        <v>46364309.9811</v>
+        <v>463643.09981099999</v>
       </c>
       <c r="G7">
-        <v>46481651.106700003</v>
+        <v>464816.51106699998</v>
       </c>
       <c r="H7">
-        <v>48862907.859399997</v>
+        <v>488629.07859400002</v>
       </c>
       <c r="I7">
-        <v>46038313.396799996</v>
+        <v>460383.13396800001</v>
       </c>
       <c r="J7">
-        <v>52807833.961400002</v>
+        <v>528078.33961400006</v>
       </c>
       <c r="K7">
-        <v>46925427.950599998</v>
+        <v>469254.27950599999</v>
       </c>
       <c r="L7">
-        <v>52700060.110799998</v>
+        <v>527000.60110800003</v>
       </c>
       <c r="M7">
-        <v>60531648.890900001</v>
+        <v>605316.48890900007</v>
       </c>
       <c r="N7">
-        <v>66669701.439800002</v>
+        <v>666697.01439799997</v>
       </c>
       <c r="O7">
-        <v>43504446.093000002</v>
+        <v>435044.46093</v>
       </c>
       <c r="P7">
-        <v>50943935.494800001</v>
+        <v>509439.35494799999</v>
       </c>
       <c r="Q7">
-        <v>49407346.322099999</v>
+        <v>494073.46322099998</v>
       </c>
       <c r="R7">
-        <v>63924156.845600002</v>
+        <v>639241.56845600007</v>
       </c>
       <c r="S7">
-        <v>53315647.536499999</v>
+        <v>533156.47536499996</v>
       </c>
       <c r="T7">
-        <v>46951839.423299998</v>
+        <v>469518.394233</v>
       </c>
       <c r="U7">
-        <v>75148650.591700003</v>
+        <v>751486.505917</v>
       </c>
       <c r="V7">
-        <v>68831953.406599998</v>
+        <v>688319.53406600002</v>
       </c>
       <c r="W7">
-        <v>62823479.023500003</v>
+        <v>628234.79023500008</v>
       </c>
       <c r="X7">
-        <v>88618104.917099997</v>
+        <v>886181.04917100002</v>
       </c>
       <c r="Y7">
-        <v>60007003.167499997</v>
+        <v>600070.03167499998</v>
       </c>
       <c r="Z7">
-        <v>89791236.193900004</v>
+        <v>897912.36193900008</v>
       </c>
       <c r="AA7">
-        <v>74687550.367799997</v>
+        <v>746875.50367799995</v>
       </c>
       <c r="AB7">
-        <v>44283151.5317</v>
+        <v>442831.51531699998</v>
       </c>
       <c r="AC7">
-        <v>57736101.265199997</v>
+        <v>577361.01265199995</v>
       </c>
       <c r="AD7">
-        <v>118583469.7798</v>
+        <v>1185834.697798</v>
       </c>
       <c r="AE7">
-        <v>62258943.016599998</v>
+        <v>622589.43016600003</v>
       </c>
       <c r="AF7">
-        <v>59286110.784299999</v>
+        <v>592861.10784299998</v>
       </c>
       <c r="AG7">
-        <v>64936340.371200003</v>
+        <v>649363.403712</v>
       </c>
       <c r="AH7">
-        <v>84411487.165099993</v>
+        <v>844114.87165099988</v>
       </c>
       <c r="AI7">
-        <v>74265381.844500005</v>
+        <v>742653.8184450001</v>
       </c>
       <c r="AJ7">
-        <v>166074505.8118</v>
+        <v>1660745.0581179999</v>
       </c>
       <c r="AK7">
-        <v>83802427.755999997</v>
+        <v>838024.27755999996</v>
       </c>
       <c r="AL7">
-        <v>46824475.383500002</v>
+        <v>468244.75383499998</v>
       </c>
       <c r="AM7">
-        <v>67236992.591999993</v>
+        <v>672369.92591999995</v>
       </c>
       <c r="AN7">
-        <v>52165540.499799997</v>
+        <v>521655.40499800001</v>
       </c>
       <c r="AO7">
-        <v>61190061.415200002</v>
+        <v>611900.61415200005</v>
       </c>
       <c r="AP7">
-        <v>56772891.428599998</v>
+        <v>567728.91428599996</v>
       </c>
       <c r="AQ7">
-        <v>60176590.570100002</v>
+        <v>601765.90570100001</v>
       </c>
       <c r="AR7">
-        <v>70379476.882400006</v>
+        <v>703794.76882400003</v>
       </c>
       <c r="AS7">
-        <v>77284422.824100003</v>
+        <v>772844.22824099998</v>
       </c>
       <c r="AT7">
-        <v>107505967.949</v>
+        <v>1075059.67949</v>
       </c>
       <c r="AU7">
-        <v>86931916.463400006</v>
+        <v>869319.16463400004</v>
       </c>
       <c r="AV7">
-        <v>74728636.280200005</v>
+        <v>747286.36280200002</v>
       </c>
       <c r="AW7">
-        <v>71264661.691499993</v>
+        <v>712646.6169149999</v>
       </c>
       <c r="AX7">
-        <v>84273480.920300007</v>
+        <v>842734.80920300004</v>
       </c>
       <c r="AY7">
-        <v>213029300.90470001</v>
+        <v>2130293.0090470002</v>
       </c>
       <c r="AZ7">
-        <v>37502335.3706</v>
+        <v>375023.35370600002</v>
       </c>
       <c r="BA7">
-        <v>78290581.910699993</v>
+        <v>782905.8191069999</v>
       </c>
       <c r="BB7">
-        <v>19942883.3398</v>
+        <v>199428.83339799999</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:AG8" si="0">(B5-B7)/10</f>
+        <v>-8637.7086644000028</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-7940.6579216000046</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-7212.4790086999947</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-8073.5134221000017</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-8879.8052225999891</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-7529.5544863000105</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-7084.9524871000031</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-9134.0840366000011</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-8115.354576000007</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-6384.3996252999987</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>-8991.0623871000025</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-15857.026359700005</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-19993.015308800008</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>-13955.4818844</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>-18698.748921799997</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>-9574.9054278999974</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>-12119.692852300004</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>-11597.378699599998</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>-9536.1906655999883</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>-24045.506766099999</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>-14447.306364599999</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>-11179.189168200008</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>-21221.865041799996</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>-17999.511659599997</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>-26126.241911900008</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>-24247.104130300006</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>-12428.0111851</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>-9215.3003979999921</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>-52150.577752299992</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>-10697.378340100002</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>-6358.7607180999939</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>-10435.813665200001</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" ref="AH8:BB8" si="1">(AH5-AH7)/10</f>
+        <v>-21799.186073099983</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="1"/>
+        <v>-25298.453899200009</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="1"/>
+        <v>-77319.696085999996</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="1"/>
+        <v>-15463.750328199996</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="1"/>
+        <v>-8908.3267522000006</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="1"/>
+        <v>-15469.431114299998</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="1"/>
+        <v>-13314.620487300004</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="1"/>
+        <v>-12229.331613500002</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="1"/>
+        <v>-12029.446765799996</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="1"/>
+        <v>-12271.664237700001</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="1"/>
+        <v>-9234.8365366999988</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="1"/>
+        <v>-10418.13614269999</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="1"/>
+        <v>-14824.497972399997</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="1"/>
+        <v>-8553.9351200000037</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="1"/>
+        <v>-9539.9616314999985</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="1"/>
+        <v>-8746.1389146999918</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="1"/>
+        <v>-12395.009198000014</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="1"/>
+        <v>-57599.21314300003</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="1"/>
+        <v>-8829.1244869999991</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="1"/>
+        <v>-7382.8071788999832</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="1"/>
+        <v>-3136.3851571999985</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f t="shared" ref="B9:AG9" si="2">1701.9*B3^2 - 105748*B3 - 301868</f>
+        <v>-405914.1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>-506556.4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>-603794.9</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-697629.6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-788060.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>-875087.6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-958710.9</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>-1038930.4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>-1115746.1000000001</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>-1189158</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>-1259166.1000000001</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>-1325770.3999999999</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>-1388970.9</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>-1448767.6</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>-1505160.5</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>-1558149.6</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>-1607734.9</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>-1653916.4</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>-1696694.1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>-1736068</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>-1772038.1</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>-1804604.4</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>-1833766.9</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>-1859525.6</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>-1881880.5</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>-1900831.5999999999</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>-1916378.9</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>-1928522.4</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>-1937262.0999999999</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="2"/>
+        <v>-1942598</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>-1944530.0999999999</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="2"/>
+        <v>-1943058.4</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" ref="AH9:BB9" si="3">1701.9*AH3^2 - 105748*AH3 - 301868</f>
+        <v>-1938182.9</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="3"/>
+        <v>-1929903.5999999999</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="3"/>
+        <v>-1918220.5</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="3"/>
+        <v>-1903133.6</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="3"/>
+        <v>-1884642.9</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="3"/>
+        <v>-1862748.4</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="3"/>
+        <v>-1837450.1</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="3"/>
+        <v>-1808748</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="3"/>
+        <v>-1776642.0999999996</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="3"/>
+        <v>-1741132.4</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="3"/>
+        <v>-1702218.9</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="3"/>
+        <v>-1659901.5999999996</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="3"/>
+        <v>-1614180.5</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="3"/>
+        <v>-1565055.5999999996</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="3"/>
+        <v>-1512526.9</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="3"/>
+        <v>-1456594.4</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="3"/>
+        <v>-1397258.0999999996</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="3"/>
+        <v>-1334518</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="3"/>
+        <v>-1268374.0999999996</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="3"/>
+        <v>-1198826.3999999994</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="3"/>
+        <v>-1125874.8999999994</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BC10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <f>B5/B7-1</f>
+        <v>-0.17339006551374248</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:BB11" si="4">C5/C7-1</f>
+        <v>-0.10219202993694454</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>-0.12534218949024678</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>-0.20237800771033643</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>-0.19152242805338338</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>-0.16198982409242946</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>-0.14499653822254122</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>-0.19840179543229941</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>-0.15367709612804692</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>-0.13605415878190974</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>-0.17060819984259246</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>-0.26196257082439833</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>-0.29988157854363395</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>-0.32078288859412651</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>-0.36704563045995209</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>-0.19379517704672033</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>-0.18959488009475745</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>-0.21752298312911622</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>-0.20310579484704117</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>-0.31997256872574864</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
+        <v>-0.20989243584673145</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="4"/>
+        <v>-0.17794603772290729</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="4"/>
+        <v>-0.23947550065139078</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="4"/>
+        <v>-0.29995685019225549</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="4"/>
+        <v>-0.2909665020702199</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="4"/>
+        <v>-0.32464720038205519</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="4"/>
+        <v>-0.2806487513925795</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="4"/>
+        <v>-0.15961071489173184</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="4"/>
+        <v>-0.43977948907330366</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="4"/>
+        <v>-0.17182075091200599</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="4"/>
+        <v>-0.10725548756664105</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="4"/>
+        <v>-0.16070837385576475</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="4"/>
+        <v>-0.25824904648893432</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="4"/>
+        <v>-0.34064934793132795</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="4"/>
+        <v>-0.46557233880087967</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="4"/>
+        <v>-0.18452628094766432</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="4"/>
+        <v>-0.19024936594034147</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="4"/>
+        <v>-0.23007321591805674</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="4"/>
+        <v>-0.25523785164942459</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="4"/>
+        <v>-0.19985813595640811</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="4"/>
+        <v>-0.2118871606342041</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="4"/>
+        <v>-0.20392754261151902</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="4"/>
+        <v>-0.13121490732491337</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="4"/>
+        <v>-0.13480253538816944</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="4"/>
+        <v>-0.13789465138747115</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="4"/>
+        <v>-9.8398096671449498E-2</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="4"/>
+        <v>-0.12766139068468052</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="4"/>
+        <v>-0.12272757222312303</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="4"/>
+        <v>-0.14708077870572778</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="4"/>
+        <v>-0.27038164655465591</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="4"/>
+        <v>-0.23542865796890078</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" si="4"/>
+        <v>-9.4300067756821426E-2</v>
+      </c>
+      <c r="BB11">
+        <f t="shared" si="4"/>
+        <v>-0.15726839011993399</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f>0.0002*B3^2 - 0.0099*B3 - 0.1271</f>
+        <v>-0.13679999999999998</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:BB12" si="5">0.0002*C3^2 - 0.0099*C3 - 0.1271</f>
+        <v>-0.14610000000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>-0.155</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>-0.16349999999999998</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>-0.1716</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>-0.17930000000000001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>-0.18659999999999999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>-0.19350000000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>-0.2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>-0.20610000000000001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>-0.21179999999999999</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>-0.21710000000000002</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>-0.222</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>-0.22649999999999998</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>-0.2306</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>-0.23430000000000001</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>-0.23759999999999998</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>-0.24050000000000002</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>-0.24509999999999998</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>-0.24680000000000002</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="5"/>
+        <v>-0.24809999999999999</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="5"/>
+        <v>-0.249</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="5"/>
+        <v>-0.2495</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="5"/>
+        <v>-0.24960000000000002</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>-0.24929999999999999</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="5"/>
+        <v>-0.24860000000000002</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="5"/>
+        <v>-0.2475</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="5"/>
+        <v>-0.246</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="5"/>
+        <v>-0.24410000000000001</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="5"/>
+        <v>-0.24179999999999999</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="5"/>
+        <v>-0.23910000000000001</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="5"/>
+        <v>-0.23600000000000002</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="5"/>
+        <v>-0.23249999999999998</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="5"/>
+        <v>-0.2286</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="5"/>
+        <v>-0.22430000000000005</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="5"/>
+        <v>-0.21960000000000002</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="5"/>
+        <v>-0.21450000000000002</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="5"/>
+        <v>-0.20900000000000002</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="5"/>
+        <v>-0.2031</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="5"/>
+        <v>-0.19680000000000003</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="5"/>
+        <v>-0.19010000000000005</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="5"/>
+        <v>-0.183</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="5"/>
+        <v>-0.17549999999999999</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="5"/>
+        <v>-0.16760000000000003</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="5"/>
+        <v>-0.1593</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="5"/>
+        <v>-0.15060000000000001</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="5"/>
+        <v>-0.14150000000000001</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="5"/>
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="5"/>
+        <v>-0.12210000000000004</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="5"/>
+        <v>-0.11180000000000001</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="5"/>
+        <v>-0.10109999999999997</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="5"/>
+        <v>-8.9999999999999969E-2</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BC13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BC14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BC15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BC16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="55:55" x14ac:dyDescent="0.2">
+      <c r="BC17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="55:55" x14ac:dyDescent="0.2">
+      <c r="BC18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="55:55" x14ac:dyDescent="0.2">
+      <c r="BC19" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BB7"/>
+  <dimension ref="A1:BC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,12 +5318,12 @@
     <col min="4" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1376,524 +5487,1415 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>4238803.4053999996</v>
+        <v>42388.034054000003</v>
       </c>
       <c r="C5">
-        <v>6845548.0717000002</v>
+        <v>68455.480716999999</v>
       </c>
       <c r="D5">
-        <v>5706066.4834000003</v>
+        <v>57060.664834000003</v>
       </c>
       <c r="E5">
-        <v>3595619.1943999999</v>
+        <v>35956.191943999998</v>
       </c>
       <c r="F5">
-        <v>4224924.7498000003</v>
+        <v>42249.247497999997</v>
       </c>
       <c r="G5">
-        <v>4248661.3806999996</v>
+        <v>42486.613806999987</v>
       </c>
       <c r="H5">
-        <v>4521314.2856999999</v>
+        <v>45213.142856999999</v>
       </c>
       <c r="I5">
-        <v>3493328.1383000002</v>
+        <v>34933.281383000001</v>
       </c>
       <c r="J5">
-        <v>4516667.4217999997</v>
+        <v>45166.674218</v>
       </c>
       <c r="K5">
-        <v>4692591.0625</v>
+        <v>46925.910624999997</v>
       </c>
       <c r="L5">
-        <v>4633137.6239</v>
+        <v>46331.376238999997</v>
       </c>
       <c r="M5">
-        <v>5066182.6507000001</v>
+        <v>50661.826506999998</v>
       </c>
       <c r="N5">
-        <v>4291935.3903999999</v>
+        <v>42919.353904000003</v>
       </c>
       <c r="O5">
-        <v>3246735.1513999999</v>
+        <v>32467.351514000002</v>
       </c>
       <c r="P5">
-        <v>3853157.5247</v>
+        <v>38531.575247000001</v>
       </c>
       <c r="Q5">
-        <v>4735192.0064000003</v>
+        <v>47351.920064000013</v>
       </c>
       <c r="R5">
-        <v>5903263.4033000004</v>
+        <v>59032.634033000002</v>
       </c>
       <c r="S5">
-        <v>3939606.1546</v>
+        <v>39396.061545999997</v>
       </c>
       <c r="T5">
-        <v>5432117.2892000005</v>
+        <v>54321.172892000002</v>
       </c>
       <c r="U5">
-        <v>3372054.6609</v>
+        <v>33720.546608999997</v>
       </c>
       <c r="V5">
-        <v>5844872.6514999997</v>
+        <v>58448.726514999988</v>
       </c>
       <c r="W5">
-        <v>5880470.2481000004</v>
+        <v>58804.702481000008</v>
       </c>
       <c r="X5">
-        <v>6012746.8085000003</v>
+        <v>60127.468085</v>
       </c>
       <c r="Y5">
-        <v>4828001.6925999997</v>
+        <v>48280.016925999997</v>
       </c>
       <c r="Z5">
-        <v>6098096.6675000004</v>
+        <v>60980.966675000003</v>
       </c>
       <c r="AA5">
-        <v>8103453.7035999997</v>
+        <v>81034.537035999994</v>
       </c>
       <c r="AB5">
-        <v>3911342.5235000001</v>
+        <v>39113.425235000002</v>
       </c>
       <c r="AC5">
-        <v>5342038.4144000001</v>
+        <v>53420.384144000003</v>
       </c>
       <c r="AD5">
-        <v>5254646.1251999997</v>
+        <v>52546.461251999986</v>
       </c>
       <c r="AE5">
-        <v>5568874.1558999997</v>
+        <v>55688.741558999987</v>
       </c>
       <c r="AF5">
-        <v>5859736.0110999998</v>
+        <v>58597.360110999987</v>
       </c>
       <c r="AG5">
-        <v>5946446.4057999998</v>
+        <v>59464.464057999998</v>
       </c>
       <c r="AH5">
-        <v>6906148.4844000004</v>
+        <v>69061.484844000006</v>
       </c>
       <c r="AI5">
-        <v>4692308.8546000002</v>
+        <v>46923.088545999999</v>
       </c>
       <c r="AJ5">
-        <v>6761964.2027000003</v>
+        <v>67619.642027000009</v>
       </c>
       <c r="AK5">
-        <v>7031411.9873000002</v>
+        <v>70314.119873000003</v>
       </c>
       <c r="AL5">
-        <v>5264134.9022000004</v>
+        <v>52641.349022000002</v>
       </c>
       <c r="AM5">
-        <v>5407902.1420999998</v>
+        <v>54079.021420999998</v>
       </c>
       <c r="AN5">
-        <v>4028340.3426000001</v>
+        <v>40283.403425999997</v>
       </c>
       <c r="AO5">
-        <v>4910844.1991999997</v>
+        <v>49108.441992</v>
       </c>
       <c r="AP5">
-        <v>5049325.5395</v>
+        <v>50493.255395</v>
       </c>
       <c r="AQ5">
-        <v>4980244.4549000002</v>
+        <v>49802.444549</v>
       </c>
       <c r="AR5">
-        <v>6913468.3875000002</v>
+        <v>69134.683875000002</v>
       </c>
       <c r="AS5">
-        <v>7287967.5336999996</v>
+        <v>72879.675336999993</v>
       </c>
       <c r="AT5">
-        <v>9695129.6940000001</v>
+        <v>96951.29694</v>
       </c>
       <c r="AU5">
-        <v>8365788.2253999999</v>
+        <v>83657.882253999996</v>
       </c>
       <c r="AV5">
-        <v>6990115.4556999998</v>
+        <v>69901.154557000002</v>
       </c>
       <c r="AW5">
-        <v>6889309.7402999997</v>
+        <v>68893.097402999992</v>
       </c>
       <c r="AX5">
-        <v>7545253.4460000005</v>
+        <v>75452.53446000001</v>
       </c>
       <c r="AY5">
-        <v>11833595.653200001</v>
+        <v>118335.956532</v>
       </c>
       <c r="AZ5">
-        <v>3419988.9323</v>
+        <v>34199.889323000003</v>
       </c>
       <c r="BA5">
-        <v>7223885.6441000002</v>
+        <v>72238.856440999996</v>
       </c>
       <c r="BB5">
-        <v>868941.04729999998</v>
+        <v>8689.4104729999999</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>4541001.5916999998</v>
+        <v>45410.015916999997</v>
       </c>
       <c r="C6">
-        <v>7126803.2209999999</v>
+        <v>71268.032210000005</v>
       </c>
       <c r="D6">
-        <v>5948464.5936000003</v>
+        <v>59484.645936000001</v>
       </c>
       <c r="E6">
-        <v>3899911.8813999998</v>
+        <v>38999.118814000001</v>
       </c>
       <c r="F6">
-        <v>4518045.03</v>
+        <v>45180.450299999997</v>
       </c>
       <c r="G6">
-        <v>4518804.2103000004</v>
+        <v>45188.042103000007</v>
       </c>
       <c r="H6">
-        <v>4712731.4747000001</v>
+        <v>47127.314746999997</v>
       </c>
       <c r="I6">
-        <v>3724815.8020000001</v>
+        <v>37248.158020000003</v>
       </c>
       <c r="J6">
-        <v>4713206.2193999998</v>
+        <v>47132.062193999998</v>
       </c>
       <c r="K6">
-        <v>4914779.7176000001</v>
+        <v>49147.797176</v>
       </c>
       <c r="L6">
-        <v>4904562.4644999998</v>
+        <v>49045.624645000004</v>
       </c>
       <c r="M6">
-        <v>5438682.2204999998</v>
+        <v>54386.822204999997</v>
       </c>
       <c r="N6">
-        <v>4633096.5653999997</v>
+        <v>46330.965654</v>
       </c>
       <c r="O6">
-        <v>3560741.4613999999</v>
+        <v>35607.414614000001</v>
       </c>
       <c r="P6">
-        <v>4466403.6111000003</v>
+        <v>44664.036111000001</v>
       </c>
       <c r="Q6">
-        <v>5167728.1311999997</v>
+        <v>51677.281311999999</v>
       </c>
       <c r="R6">
-        <v>6353380.9868999999</v>
+        <v>63533.809868999997</v>
       </c>
       <c r="S6">
-        <v>4382485.6133000003</v>
+        <v>43824.856133000001</v>
       </c>
       <c r="T6">
-        <v>5883967.5014000004</v>
+        <v>58839.675014000008</v>
       </c>
       <c r="U6">
-        <v>3863135.0608000001</v>
+        <v>38631.350608000001</v>
       </c>
       <c r="V6">
-        <v>6332055.1218999997</v>
+        <v>63320.551218999994</v>
       </c>
       <c r="W6">
-        <v>6443034.3055999996</v>
+        <v>64430.343055999998</v>
       </c>
       <c r="X6">
-        <v>6843943.4232999999</v>
+        <v>68439.434232999993</v>
       </c>
       <c r="Y6">
-        <v>5470872.5104</v>
+        <v>54708.725103999997</v>
       </c>
       <c r="Z6">
-        <v>6697872.2703999998</v>
+        <v>66978.722704</v>
       </c>
       <c r="AA6">
-        <v>10864672.355</v>
+        <v>108646.72355</v>
       </c>
       <c r="AB6">
-        <v>4541718.9274000004</v>
+        <v>45417.189273999997</v>
       </c>
       <c r="AC6">
-        <v>6019873.9868999999</v>
+        <v>60198.739868999997</v>
       </c>
       <c r="AD6">
-        <v>5994197.9513999997</v>
+        <v>59941.979513999999</v>
       </c>
       <c r="AE6">
-        <v>6042404.2273000004</v>
+        <v>60424.042273000006</v>
       </c>
       <c r="AF6">
-        <v>6333311.9063999997</v>
+        <v>63333.119063999999</v>
       </c>
       <c r="AG6">
-        <v>6625783.1220000004</v>
+        <v>66257.831220000007</v>
       </c>
       <c r="AH6">
-        <v>7625011.8197999997</v>
+        <v>76250.118197999996</v>
       </c>
       <c r="AI6">
-        <v>5289530.199</v>
+        <v>52895.30199</v>
       </c>
       <c r="AJ6">
-        <v>7546408.1948999995</v>
+        <v>75464.081948999999</v>
       </c>
       <c r="AK6">
-        <v>8102319.1579999998</v>
+        <v>81023.191579999999</v>
       </c>
       <c r="AL6">
-        <v>5779452.4283999996</v>
+        <v>57794.524283999999</v>
       </c>
       <c r="AM6">
-        <v>5743432.5707</v>
+        <v>57434.325707000004</v>
       </c>
       <c r="AN6">
-        <v>4690085.0865000002</v>
+        <v>46900.850865</v>
       </c>
       <c r="AO6">
-        <v>5318781.0048000002</v>
+        <v>53187.810047999999</v>
       </c>
       <c r="AP6">
-        <v>5585595.5877999999</v>
+        <v>55855.955878000001</v>
       </c>
       <c r="AQ6">
-        <v>5562874.1579</v>
+        <v>55628.741579000001</v>
       </c>
       <c r="AR6">
-        <v>7360342.3973000003</v>
+        <v>73603.423972999997</v>
       </c>
       <c r="AS6">
-        <v>7694248.2147000004</v>
+        <v>76942.482147000002</v>
       </c>
       <c r="AT6">
-        <v>10756046.533299999</v>
+        <v>107560.465333</v>
       </c>
       <c r="AU6">
-        <v>8737879.0881999992</v>
+        <v>87378.790881999987</v>
       </c>
       <c r="AV6">
-        <v>7350132.1419000002</v>
+        <v>73501.321419</v>
       </c>
       <c r="AW6">
-        <v>7244663.3941000002</v>
+        <v>72446.633941000007</v>
       </c>
       <c r="AX6">
-        <v>8086705.9396000002</v>
+        <v>80867.059395999997</v>
       </c>
       <c r="AY6">
-        <v>12986573.1643</v>
+        <v>129865.73164300001</v>
       </c>
       <c r="AZ6">
-        <v>3859079.0940999999</v>
+        <v>38590.790940999999</v>
       </c>
       <c r="BA6">
-        <v>7460070.6134000001</v>
+        <v>74600.706134000007</v>
       </c>
       <c r="BB6">
-        <v>923694.31110000005</v>
+        <v>9236.9431110000005</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>4741027.7082000002</v>
+        <v>47410.277082000001</v>
       </c>
       <c r="C7">
-        <v>7289244.5017999997</v>
+        <v>72892.445017999999</v>
       </c>
       <c r="D7">
-        <v>6090550.7549999999</v>
+        <v>60905.507550000002</v>
       </c>
       <c r="E7">
-        <v>4069275.108</v>
+        <v>40692.751080000002</v>
       </c>
       <c r="F7">
-        <v>4704657.0279000001</v>
+        <v>47046.570279</v>
       </c>
       <c r="G7">
-        <v>4665129.4028000003</v>
+        <v>46651.294027999997</v>
       </c>
       <c r="H7">
-        <v>4818489.3130000001</v>
+        <v>48184.893129999997</v>
       </c>
       <c r="I7">
-        <v>3834368.7193</v>
+        <v>38343.687192999998</v>
       </c>
       <c r="J7">
-        <v>4812724.8936000001</v>
+        <v>48127.248936000004</v>
       </c>
       <c r="K7">
-        <v>5030274.9534999998</v>
+        <v>50302.749535000003</v>
       </c>
       <c r="L7">
-        <v>5044541.9835000001</v>
+        <v>50445.419835000001</v>
       </c>
       <c r="M7">
-        <v>5640583.3075000001</v>
+        <v>56405.833075000002</v>
       </c>
       <c r="N7">
-        <v>4831991.7688999996</v>
+        <v>48319.917688999987</v>
       </c>
       <c r="O7">
-        <v>3687821.8372</v>
+        <v>36878.218372000003</v>
       </c>
       <c r="P7">
-        <v>4775118.2078999998</v>
+        <v>47751.182078999998</v>
       </c>
       <c r="Q7">
-        <v>5369207.8908000002</v>
+        <v>53692.078908000003</v>
       </c>
       <c r="R7">
-        <v>6574065.8393999999</v>
+        <v>65740.658393999998</v>
       </c>
       <c r="S7">
-        <v>4578737.9194999998</v>
+        <v>45787.379195000001</v>
       </c>
       <c r="T7">
-        <v>6096057.7794000003</v>
+        <v>60960.577793999997</v>
       </c>
       <c r="U7">
-        <v>4052384.969</v>
+        <v>40523.849690000003</v>
       </c>
       <c r="V7">
-        <v>6581923.9719000002</v>
+        <v>65819.239719000005</v>
       </c>
       <c r="W7">
-        <v>6781872.1667999998</v>
+        <v>67818.721667999998</v>
       </c>
       <c r="X7">
-        <v>7241545.3792000003</v>
+        <v>72415.453792</v>
       </c>
       <c r="Y7">
-        <v>5840831.7171</v>
+        <v>58408.317171000002</v>
       </c>
       <c r="Z7">
-        <v>6998402.3005999997</v>
+        <v>69984.023006000003</v>
       </c>
       <c r="AA7">
-        <v>11589324.5253</v>
+        <v>115893.245253</v>
       </c>
       <c r="AB7">
-        <v>4924942.9101999998</v>
+        <v>49249.429101999987</v>
       </c>
       <c r="AC7">
-        <v>6362604.1436999999</v>
+        <v>63626.041437</v>
       </c>
       <c r="AD7">
-        <v>6346498.3630999997</v>
+        <v>63464.983631000003</v>
       </c>
       <c r="AE7">
-        <v>6244940.6157999998</v>
+        <v>62449.406157999998</v>
       </c>
       <c r="AF7">
-        <v>6535675.2578999996</v>
+        <v>65356.752578999993</v>
       </c>
       <c r="AG7">
-        <v>6913639.0599999996</v>
+        <v>69136.390599999999</v>
       </c>
       <c r="AH7">
-        <v>7965419.8247999996</v>
+        <v>79654.198248000001</v>
       </c>
       <c r="AI7">
-        <v>5595558.2466000002</v>
+        <v>55955.582466</v>
       </c>
       <c r="AJ7">
-        <v>7887927.6654000003</v>
+        <v>78879.276654000001</v>
       </c>
       <c r="AK7">
-        <v>8590976.7038000003</v>
+        <v>85909.767038000005</v>
       </c>
       <c r="AL7">
-        <v>6045718.9282</v>
+        <v>60457.189281999999</v>
       </c>
       <c r="AM7">
-        <v>5851011.2663000003</v>
+        <v>58510.112663</v>
       </c>
       <c r="AN7">
-        <v>5058074.8651999999</v>
+        <v>50580.748652000002</v>
       </c>
       <c r="AO7">
-        <v>5489607.6731000002</v>
+        <v>54896.076731000001</v>
       </c>
       <c r="AP7">
-        <v>5894591.7692</v>
+        <v>58945.917692000003</v>
       </c>
       <c r="AQ7">
-        <v>5866321.8032</v>
+        <v>58663.218031999997</v>
       </c>
       <c r="AR7">
-        <v>7539592.1070999997</v>
+        <v>75395.92107099999</v>
       </c>
       <c r="AS7">
-        <v>7895531.6733999997</v>
+        <v>78955.316733999993</v>
       </c>
       <c r="AT7">
-        <v>11262407.4592</v>
+        <v>112624.074592</v>
       </c>
       <c r="AU7">
-        <v>8922094.7113000005</v>
+        <v>89220.947113000002</v>
       </c>
       <c r="AV7">
-        <v>7569397.0754000004</v>
+        <v>75693.970754000009</v>
       </c>
       <c r="AW7">
-        <v>7411375.2890999997</v>
+        <v>74113.752890999996</v>
       </c>
       <c r="AX7">
-        <v>8424964.1385999992</v>
+        <v>84249.641385999988</v>
       </c>
       <c r="AY7">
-        <v>13546477.643999999</v>
+        <v>135464.77643999999</v>
       </c>
       <c r="AZ7">
-        <v>4129140.3065999998</v>
+        <v>41291.403065999999</v>
       </c>
       <c r="BA7">
-        <v>7605357.8572000004</v>
+        <v>76053.578571999999</v>
       </c>
       <c r="BB7">
-        <v>932996.86639999994</v>
+        <v>9329.968664</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <f>B5-B7</f>
+        <v>-5022.2430279999971</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="B8:AG8" si="0">C5-C7</f>
+        <v>-4436.964301</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-3844.8427159999992</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-4736.5591360000035</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-4797.3227810000026</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-4164.6802210000096</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-2971.7502729999978</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-3410.4058099999966</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-2960.5747180000035</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-3376.8389100000059</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>-4114.0435960000032</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-5744.0065680000043</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-5400.5637849999839</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>-4410.8668580000012</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>-9219.6068319999977</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>-6340.1588439999905</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>-6708.0243609999961</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>-6391.3176490000042</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>-6639.4049019999948</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>-6803.3030810000055</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>-7370.5132040000171</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>-9014.0191869999908</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>-12287.985707</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>-10128.300245000006</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>-9003.0563309999998</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>-34858.708217000007</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>-10136.003866999985</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>-10205.657292999997</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>-10918.522379000016</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>-6760.6645990000106</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>-6759.3924680000055</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>-9671.9265420000011</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" ref="AH8:BB8" si="1">AH5-AH7</f>
+        <v>-10592.713403999995</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="1"/>
+        <v>-9032.4939200000008</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="1"/>
+        <v>-11259.634626999992</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="1"/>
+        <v>-15595.647165000002</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="1"/>
+        <v>-7815.8402599999972</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="1"/>
+        <v>-4431.0912420000022</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="1"/>
+        <v>-10297.345226000005</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="1"/>
+        <v>-5787.634739000001</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="1"/>
+        <v>-8452.6622970000026</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="1"/>
+        <v>-8860.7734829999972</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="1"/>
+        <v>-6261.2371959999873</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="1"/>
+        <v>-6075.6413969999994</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="1"/>
+        <v>-15672.777652000004</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="1"/>
+        <v>-5563.0648590000055</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="1"/>
+        <v>-5792.8161970000074</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="1"/>
+        <v>-5220.655488000004</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="1"/>
+        <v>-8797.1069259999786</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="1"/>
+        <v>-17128.81990799999</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="1"/>
+        <v>-7091.5137429999959</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="1"/>
+        <v>-3814.7221310000023</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="1"/>
+        <v>-640.55819100000008</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f>9.557*(B3^2) - 593.92*B3 - 956.11</f>
+        <v>-1540.473</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:BB9" si="2">9.557*(C3^2) - 593.92*C3 - 956.11</f>
+        <v>-2105.7219999999998</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>-2651.857</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-3178.8780000000002</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-3686.7849999999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>-4175.5779999999995</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-4645.2569999999996</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>-5095.8219999999992</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>-5527.2729999999992</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>-5939.61</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>-6332.8329999999996</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>-6706.9419999999982</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>-7061.936999999999</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>-7397.8179999999984</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>-7714.5849999999982</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>-8012.2379999999985</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>-8290.777</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>-8550.2019999999993</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>-8790.512999999999</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>-9011.7099999999991</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>-9213.7930000000015</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>-9396.7620000000006</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>-9560.6170000000002</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>-9705.3579999999984</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>-9830.9849999999988</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>-9937.4979999999996</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>-10024.896999999999</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>-10093.181999999999</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>-10142.353000000001</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="2"/>
+        <v>-10172.409999999998</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>-10183.353000000001</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="2"/>
+        <v>-10175.181999999999</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="2"/>
+        <v>-10147.896999999997</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="2"/>
+        <v>-10101.498</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="2"/>
+        <v>-10035.984999999997</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="2"/>
+        <v>-9951.3579999999984</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="2"/>
+        <v>-9847.6169999999966</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="2"/>
+        <v>-9724.7619999999988</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="2"/>
+        <v>-9582.7929999999978</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="2"/>
+        <v>-9421.7099999999991</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="2"/>
+        <v>-9241.5129999999972</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="2"/>
+        <v>-9042.2020000000011</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="2"/>
+        <v>-8823.7769999999982</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="2"/>
+        <v>-8586.2380000000012</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="2"/>
+        <v>-8329.5849999999991</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="2"/>
+        <v>-8053.8179999999984</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="2"/>
+        <v>-7758.9369999999972</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="2"/>
+        <v>-7444.9419999999946</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="2"/>
+        <v>-7111.8329999999978</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="2"/>
+        <v>-6759.609999999996</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="2"/>
+        <v>-6388.2729999999965</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="2"/>
+        <v>-5997.8219999999956</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="2"/>
+        <v>-5588.2569999999969</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BC10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <f>B5/B7-1</f>
+        <v>-0.10593152660368577</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:BB11" si="3">C5/C7-1</f>
+        <v>-6.0870016088832468E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>-6.3127997297183658E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>-0.1163981055664719</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>-0.10196966011657105</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>-8.9272555194296999E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>-6.1673899846210967E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>-8.8943084498733338E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>-6.1515561006551644E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>-6.713030482857496E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>-8.1554353387413014E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>-0.10183355612109279</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>-0.11176682501322677</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>-0.11960628936860407</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>-0.19307599164240574</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>-0.11808369079661996</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>-0.10203768147250902</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>-0.1395868853244594</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>-0.10891309010285455</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>-0.16788392842841993</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>-0.11198113553828204</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>-0.13291343400908162</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>-0.16968733969816674</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>-0.17340510282718358</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>-0.12864445260924962</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="3"/>
+        <v>-0.30078291569885651</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="3"/>
+        <v>-0.20580957082786511</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>-0.16040063254768466</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="3"/>
+        <v>-0.17204010391750535</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="3"/>
+        <v>-0.10825826881195966</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="3"/>
+        <v>-0.10342301600480508</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="3"/>
+        <v>-0.13989631882807607</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="3"/>
+        <v>-0.13298374269012192</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="3"/>
+        <v>-0.16142256986581038</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="3"/>
+        <v>-0.14274515569393231</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="3"/>
+        <v>-0.18153520493312081</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="3"/>
+        <v>-0.12927892204090641</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="3"/>
+        <v>-7.5732057935381292E-2</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="3"/>
+        <v>-0.20358230157577628</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="3"/>
+        <v>-0.10542893196831504</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="3"/>
+        <v>-0.14339690733404553</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="3"/>
+        <v>-0.1510447905903588</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="3"/>
+        <v>-8.3044773603916933E-2</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="3"/>
+        <v>-7.6950377103403911E-2</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="3"/>
+        <v>-0.13916010150385094</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="3"/>
+        <v>-6.235155576138729E-2</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="3"/>
+        <v>-7.6529426839374692E-2</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="3"/>
+        <v>-7.0441116315862251E-2</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="3"/>
+        <v>-0.10441714387477286</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="3"/>
+        <v>-0.12644482468537999</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="3"/>
+        <v>-0.17174310428892303</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" si="3"/>
+        <v>-5.015835155460302E-2</v>
+      </c>
+      <c r="BB11">
+        <f t="shared" si="3"/>
+        <v>-6.8655985252299434E-2</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f>0.0001*B3^2 - 0.0071*B3 - 0.0505</f>
+        <v>-5.7500000000000002E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:BB12" si="4">0.0001*C3^2 - 0.0071*C3 - 0.0505</f>
+        <v>-6.430000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>-7.0900000000000005E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>-7.7300000000000008E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>-8.3500000000000005E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>-8.9499999999999996E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>-9.5299999999999996E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>-0.1009</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>-0.10630000000000001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>-0.11150000000000002</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>-0.11650000000000001</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>-0.12130000000000001</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>-0.12590000000000001</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>-0.13030000000000003</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>-0.13450000000000001</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>-0.13850000000000001</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>-0.14229999999999998</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>-0.1459</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>-0.14930000000000004</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>-0.15250000000000002</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="4"/>
+        <v>-0.15550000000000003</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="4"/>
+        <v>-0.1583</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="4"/>
+        <v>-0.16089999999999999</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="4"/>
+        <v>-0.1633</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="4"/>
+        <v>-0.16550000000000004</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="4"/>
+        <v>-0.16750000000000001</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="4"/>
+        <v>-0.16930000000000001</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>-0.1709</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="4"/>
+        <v>-0.17230000000000001</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="4"/>
+        <v>-0.17350000000000002</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="4"/>
+        <v>-0.17450000000000002</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="4"/>
+        <v>-0.17530000000000001</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="4"/>
+        <v>-0.1759</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="4"/>
+        <v>-0.17630000000000001</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="4"/>
+        <v>-0.17649999999999999</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="4"/>
+        <v>-0.17649999999999999</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="4"/>
+        <v>-0.17630000000000001</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="4"/>
+        <v>-0.17590000000000006</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="4"/>
+        <v>-0.17530000000000001</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="4"/>
+        <v>-0.17450000000000004</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="4"/>
+        <v>-0.17350000000000004</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="4"/>
+        <v>-0.17230000000000001</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="4"/>
+        <v>-0.1709</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="4"/>
+        <v>-0.16930000000000001</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="4"/>
+        <v>-0.16749999999999998</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="4"/>
+        <v>-0.16549999999999998</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="4"/>
+        <v>-0.1633</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="4"/>
+        <v>-0.16089999999999999</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="4"/>
+        <v>-0.15830000000000005</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="4"/>
+        <v>-0.15550000000000003</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="4"/>
+        <v>-0.15250000000000002</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="4"/>
+        <v>-0.14929999999999999</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="4"/>
+        <v>-0.14589999999999997</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1970,395 +6972,318 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>16936894.212900002</v>
+        <v>462.75667248360662</v>
       </c>
       <c r="C5">
-        <v>11817285.130999999</v>
+        <v>322.87664292349729</v>
       </c>
       <c r="D5">
-        <v>8048687.5168000003</v>
+        <v>219.90949499453549</v>
       </c>
       <c r="E5">
-        <v>4927821.4928000001</v>
+        <v>134.63993149726781</v>
       </c>
       <c r="F5">
-        <v>2976505.2949000001</v>
+        <v>81.325281281420772</v>
       </c>
       <c r="G5">
-        <v>2642283.8169</v>
+        <v>72.193546909836073</v>
       </c>
       <c r="H5">
-        <v>2313490.7598000001</v>
+        <v>63.210130049180329</v>
       </c>
       <c r="I5">
-        <v>1852590.5551</v>
+        <v>50.617228281420758</v>
       </c>
       <c r="J5">
-        <v>1840772.2009999999</v>
+        <v>50.294322431693978</v>
       </c>
       <c r="K5">
-        <v>3654278.4509000001</v>
+        <v>99.843673521857937</v>
       </c>
       <c r="L5">
-        <v>6552259.6920999996</v>
+        <v>179.02348885519129</v>
       </c>
       <c r="M5">
-        <v>7336614.7992000002</v>
+        <v>200.45395626229509</v>
       </c>
       <c r="N5">
-        <v>6754220.0548999999</v>
+        <v>184.54153155464479</v>
       </c>
       <c r="O5">
-        <v>6601344.4184999997</v>
+        <v>180.36460159836059</v>
       </c>
       <c r="P5">
-        <v>7740498.1542999996</v>
+        <v>211.48902060928961</v>
       </c>
       <c r="Q5">
-        <v>9411476.6106000002</v>
+        <v>257.14416968852458</v>
       </c>
       <c r="R5">
-        <v>11885065.8202</v>
+        <v>324.72857432240443</v>
       </c>
       <c r="S5">
-        <v>19047527.999499999</v>
+        <v>520.42426228142074</v>
       </c>
       <c r="T5">
-        <v>27868041.1184</v>
+        <v>761.42188848087437</v>
       </c>
       <c r="U5">
-        <v>39938653.496200003</v>
+        <v>1091.220040879781</v>
       </c>
       <c r="V5">
-        <v>43623074.852899998</v>
+        <v>1191.887291062842</v>
       </c>
       <c r="W5">
-        <v>36871915.6175</v>
+        <v>1007.429388456284</v>
       </c>
       <c r="X5">
-        <v>29011288.418400001</v>
+        <v>792.65815350819673</v>
       </c>
       <c r="Y5">
-        <v>22900407.687100001</v>
+        <v>625.69419910109298</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>17294633.716899998</v>
+        <v>472.5309758715847</v>
       </c>
       <c r="C6">
-        <v>14882598.2892</v>
+        <v>406.62836855737697</v>
       </c>
       <c r="D6">
-        <v>13380463.656099999</v>
+        <v>365.58643869125677</v>
       </c>
       <c r="E6">
-        <v>11114107.6545</v>
+        <v>303.6641435655738</v>
       </c>
       <c r="F6">
-        <v>8492009.0224000011</v>
+        <v>232.0221044371585</v>
       </c>
       <c r="G6">
-        <v>6217273.5800000001</v>
+        <v>169.87086284153011</v>
       </c>
       <c r="H6">
-        <v>3506192.7596999998</v>
+        <v>95.797616385245902</v>
       </c>
       <c r="I6">
-        <v>2355060.3317</v>
+        <v>64.34591070218579</v>
       </c>
       <c r="J6">
-        <v>2442491.6900999998</v>
+        <v>66.734745631147533</v>
       </c>
       <c r="K6">
-        <v>3919760.1562999999</v>
+        <v>107.0972720300546</v>
       </c>
       <c r="L6">
-        <v>6638733.5703999996</v>
+        <v>181.38616312568311</v>
       </c>
       <c r="M6">
-        <v>7302410.5107000005</v>
+        <v>199.51941286065579</v>
       </c>
       <c r="N6">
-        <v>6809779.1506000003</v>
+        <v>186.05953963387981</v>
       </c>
       <c r="O6">
-        <v>6597814.4703000002</v>
+        <v>180.2681549262295</v>
       </c>
       <c r="P6">
-        <v>7640173.1712000007</v>
+        <v>208.747900852459</v>
       </c>
       <c r="Q6">
-        <v>9239261.2926000003</v>
+        <v>252.43883313114759</v>
       </c>
       <c r="R6">
-        <v>11149518.509500001</v>
+        <v>304.6316532650273</v>
       </c>
       <c r="S6">
-        <v>16761323.762399999</v>
+        <v>457.95966563934428</v>
       </c>
       <c r="T6">
-        <v>23320389.051899999</v>
+        <v>637.16909977868852</v>
       </c>
       <c r="U6">
-        <v>32268044.727600001</v>
+        <v>881.6405663278689</v>
       </c>
       <c r="V6">
-        <v>34831512.528899997</v>
+        <v>951.68067018852457</v>
       </c>
       <c r="W6">
-        <v>29439521.026099999</v>
+        <v>804.35849798087429</v>
       </c>
       <c r="X6">
-        <v>23469735.071699999</v>
+        <v>641.24959212295084</v>
       </c>
       <c r="Y6">
-        <v>20112604.865200002</v>
+        <v>549.52472309289612</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>22146098.098700002</v>
+        <v>605.08464750546443</v>
       </c>
       <c r="C7">
-        <v>21221432.124200001</v>
+        <v>579.82054984153012</v>
       </c>
       <c r="D7">
-        <v>19013554.251200002</v>
+        <v>519.49601779234979</v>
       </c>
       <c r="E7">
-        <v>15573234.489800001</v>
+        <v>425.49821010382522</v>
       </c>
       <c r="F7">
-        <v>10986502.4268</v>
+        <v>300.17766193442623</v>
       </c>
       <c r="G7">
-        <v>5358128.4055000003</v>
+        <v>146.39695096994541</v>
       </c>
       <c r="H7">
-        <v>1899427.2938999999</v>
+        <v>51.896920598360659</v>
       </c>
       <c r="I7">
-        <v>887610.29239999992</v>
+        <v>24.251647333333331</v>
       </c>
       <c r="J7">
-        <v>1578405.5834999999</v>
+        <v>43.125835614754102</v>
       </c>
       <c r="K7">
-        <v>3539779.2256999998</v>
+        <v>96.715279390710378</v>
       </c>
       <c r="L7">
-        <v>6494154.2830999997</v>
+        <v>177.43590937431699</v>
       </c>
       <c r="M7">
-        <v>7414605.7605000008</v>
+        <v>202.5848568442623</v>
       </c>
       <c r="N7">
-        <v>7297228.2048000004</v>
+        <v>199.3778198032787</v>
       </c>
       <c r="O7">
-        <v>6926622.1692000004</v>
+        <v>189.25197183606559</v>
       </c>
       <c r="P7">
-        <v>7866219.8547</v>
+        <v>214.92403974590161</v>
       </c>
       <c r="Q7">
-        <v>9352204.4232000001</v>
+        <v>255.52471101639341</v>
       </c>
       <c r="R7">
-        <v>10557126.054</v>
+        <v>288.44606704918027</v>
       </c>
       <c r="S7">
-        <v>14139414.096100001</v>
+        <v>386.32278951092889</v>
       </c>
       <c r="T7">
-        <v>16328171.8226</v>
+        <v>446.12491318579231</v>
       </c>
       <c r="U7">
-        <v>17591918.655299999</v>
+        <v>480.65351517213122</v>
       </c>
       <c r="V7">
-        <v>18601055.431600001</v>
+        <v>508.22555824043712</v>
       </c>
       <c r="W7">
-        <v>19485414.699099999</v>
+        <v>532.38837975683055</v>
       </c>
       <c r="X7">
-        <v>22397199.235599998</v>
+        <v>611.94533430601098</v>
       </c>
       <c r="Y7">
-        <v>24618193.444400001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>4851464.3817999996</v>
-      </c>
-      <c r="C8">
-        <v>6338833.8350000009</v>
-      </c>
-      <c r="D8">
-        <v>5633090.5951000024</v>
-      </c>
-      <c r="E8">
-        <v>4459126.8353000004</v>
-      </c>
-      <c r="F8">
-        <v>2494493.404399998</v>
-      </c>
-      <c r="G8">
-        <v>-859145.17449999973</v>
-      </c>
-      <c r="H8">
-        <v>-1606765.4657999999</v>
-      </c>
-      <c r="I8">
-        <v>-1467450.0393000001</v>
-      </c>
-      <c r="J8">
-        <v>-864086.10660000029</v>
-      </c>
-      <c r="K8">
-        <v>-379980.93059999961</v>
-      </c>
-      <c r="L8">
-        <v>-144579.2873</v>
-      </c>
-      <c r="M8">
-        <v>112195.2498000003</v>
-      </c>
-      <c r="N8">
-        <v>487449.05420000007</v>
-      </c>
-      <c r="O8">
-        <v>328807.69890000019</v>
-      </c>
-      <c r="P8">
-        <v>226046.68349999929</v>
-      </c>
-      <c r="Q8">
-        <v>112943.1305999998</v>
-      </c>
-      <c r="R8">
-        <v>-592392.45550000109</v>
-      </c>
-      <c r="S8">
-        <v>-2621909.6663000011</v>
-      </c>
-      <c r="T8">
-        <v>-6992217.2292999998</v>
-      </c>
-      <c r="U8">
-        <v>-14676126.0723</v>
-      </c>
-      <c r="V8">
-        <v>-16230457.0973</v>
-      </c>
-      <c r="W8">
-        <v>-9954106.3270000033</v>
-      </c>
-      <c r="X8">
-        <v>-1072535.8360999969</v>
-      </c>
-      <c r="Y8">
-        <v>4505588.5791999996</v>
+        <v>672.62823618579228</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>4734786.8315999992</v>
+        <v>23.62536991256831</v>
       </c>
       <c r="C9">
-        <v>6338833.8350000009</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>5633090.5951000024</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>4459126.8353000004</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2489005.8519000001</v>
+        <v>0.38967241530054642</v>
       </c>
       <c r="G9">
-        <v>-916558.70129999984</v>
+        <v>11.253253120218581</v>
       </c>
       <c r="H9">
-        <v>-1534010.6225999999</v>
+        <v>5.7877057322404371</v>
       </c>
       <c r="I9">
-        <v>-1434382.4705999999</v>
+        <v>4.7717820027322402</v>
       </c>
       <c r="J9">
-        <v>-720060.20279999997</v>
+        <v>23.92391640163935</v>
       </c>
       <c r="K9">
-        <v>-15529.52539999993</v>
+        <v>88.877126043715862</v>
       </c>
       <c r="L9">
-        <v>92258.957500000019</v>
+        <v>175.63240652185789</v>
       </c>
       <c r="M9">
-        <v>42359.054700000008</v>
+        <v>199.65520760928959</v>
       </c>
       <c r="N9">
-        <v>16186.5466</v>
+        <v>184.45017846721311</v>
       </c>
       <c r="O9">
-        <v>3292.8977999999988</v>
+        <v>180.21612874590161</v>
       </c>
       <c r="P9">
-        <v>21089.2156</v>
+        <v>209.00296571857919</v>
       </c>
       <c r="Q9">
-        <v>56241.067699999963</v>
+        <v>243.84911928415301</v>
       </c>
       <c r="R9">
-        <v>-238782.29249999989</v>
+        <v>270.64029689890708</v>
       </c>
       <c r="S9">
-        <v>-1729467.5919999999</v>
+        <v>359.95698199180327</v>
       </c>
       <c r="T9">
-        <v>-6074985.7653999999</v>
+        <v>404.991591784153</v>
       </c>
       <c r="U9">
-        <v>-13070211.7366</v>
+        <v>479.94457271038249</v>
       </c>
       <c r="V9">
-        <v>-15262727.035599999</v>
+        <v>426.72888905737699</v>
       </c>
       <c r="W9">
-        <v>-10389998.998199999</v>
+        <v>246.84346163661201</v>
       </c>
       <c r="X9">
-        <v>-1397283.0975999979</v>
+        <v>127.81846774863391</v>
       </c>
       <c r="Y9">
-        <v>4151535.5361000001</v>
+        <v>78.124520161202184</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>116677.5501999999</v>
+        <v>32.935552904371583</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2370,64 +7295,372 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5487.5525000000007</v>
+        <v>0.2214742267759563</v>
       </c>
       <c r="G10">
-        <v>57413.526799999992</v>
+        <v>9.6230609153005471</v>
       </c>
       <c r="H10">
-        <v>-72754.843200000003</v>
+        <v>7.4689273005464489</v>
       </c>
       <c r="I10">
-        <v>-33067.568700000003</v>
+        <v>4.5399553196721314</v>
       </c>
       <c r="J10">
-        <v>-144025.90380000009</v>
+        <v>20.05128029508197</v>
       </c>
       <c r="K10">
-        <v>-364451.40519999992</v>
+        <v>77.180173672131147</v>
       </c>
       <c r="L10">
-        <v>-236838.24479999949</v>
+        <v>167.32014906557379</v>
       </c>
       <c r="M10">
-        <v>69836.195100000128</v>
+        <v>194.37509238797821</v>
       </c>
       <c r="N10">
-        <v>471262.50760000013</v>
+        <v>184.39849727868861</v>
       </c>
       <c r="O10">
-        <v>325514.80109999981</v>
+        <v>179.95400585792351</v>
       </c>
       <c r="P10">
-        <v>204957.46789999961</v>
+        <v>207.26329267486341</v>
       </c>
       <c r="Q10">
-        <v>56702.062899999321</v>
+        <v>244.35506674590169</v>
       </c>
       <c r="R10">
-        <v>-353610.16300000058</v>
+        <v>270.72087383333331</v>
       </c>
       <c r="S10">
-        <v>-892442.07430000044</v>
+        <v>355.13317712021859</v>
       </c>
       <c r="T10">
-        <v>-917231.46389999986</v>
+        <v>404.37984629508202</v>
       </c>
       <c r="U10">
-        <v>-1605914.3356999999</v>
+        <v>473.57170938797822</v>
       </c>
       <c r="V10">
-        <v>-967730.06170000136</v>
+        <v>427.47125703005469</v>
       </c>
       <c r="W10">
-        <v>435892.67119999969</v>
+        <v>263.51730125956283</v>
       </c>
       <c r="X10">
-        <v>324747.26150000002</v>
+        <v>137.0024500327869</v>
       </c>
       <c r="Y10">
-        <v>354053.04309999989</v>
+        <v>85.872308898907107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>36.123464112021857</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.37140735519125678</v>
+      </c>
+      <c r="G11">
+        <v>11.19173651092896</v>
+      </c>
+      <c r="H11">
+        <v>5.4810900546448087</v>
+      </c>
+      <c r="I11">
+        <v>3.6364698360655741</v>
+      </c>
+      <c r="J11">
+        <v>16.116146311475411</v>
+      </c>
+      <c r="K11">
+        <v>67.222485005464478</v>
+      </c>
+      <c r="L11">
+        <v>160.84915877049181</v>
+      </c>
+      <c r="M11">
+        <v>196.28318515027331</v>
+      </c>
+      <c r="N11">
+        <v>197.27452207650271</v>
+      </c>
+      <c r="O11">
+        <v>188.84785288251359</v>
+      </c>
+      <c r="P11">
+        <v>212.8632234918033</v>
+      </c>
+      <c r="Q11">
+        <v>245.90430343715849</v>
+      </c>
+      <c r="R11">
+        <v>261.05939396994529</v>
+      </c>
+      <c r="S11">
+        <v>330.74951388797808</v>
+      </c>
+      <c r="T11">
+        <v>379.31887733606561</v>
+      </c>
+      <c r="U11">
+        <v>429.69426852185802</v>
+      </c>
+      <c r="V11">
+        <v>401.0305449617486</v>
+      </c>
+      <c r="W11">
+        <v>275.42693708469938</v>
+      </c>
+      <c r="X11">
+        <v>145.87532603005471</v>
+      </c>
+      <c r="Y11">
+        <v>95.54588931147542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>439.13130257103819</v>
+      </c>
+      <c r="C13">
+        <v>322.87664292349729</v>
+      </c>
+      <c r="D13">
+        <v>219.90949499453549</v>
+      </c>
+      <c r="E13">
+        <v>134.63993149726781</v>
+      </c>
+      <c r="F13">
+        <v>80.935608866120219</v>
+      </c>
+      <c r="G13">
+        <v>60.940293789617492</v>
+      </c>
+      <c r="H13">
+        <v>57.422424316939889</v>
+      </c>
+      <c r="I13">
+        <v>45.84544627868852</v>
+      </c>
+      <c r="J13">
+        <v>26.370406030054639</v>
+      </c>
+      <c r="K13">
+        <v>10.966547478142081</v>
+      </c>
+      <c r="L13">
+        <v>3.3910823333333342</v>
+      </c>
+      <c r="M13">
+        <v>0.79874865300546449</v>
+      </c>
+      <c r="N13">
+        <v>9.1353087431693999E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.1484728524590164</v>
+      </c>
+      <c r="P13">
+        <v>2.486054890710383</v>
+      </c>
+      <c r="Q13">
+        <v>13.29505040437158</v>
+      </c>
+      <c r="R13">
+        <v>54.088277423497267</v>
+      </c>
+      <c r="S13">
+        <v>160.46728028961749</v>
+      </c>
+      <c r="T13">
+        <v>356.43029669672143</v>
+      </c>
+      <c r="U13">
+        <v>611.27546816939889</v>
+      </c>
+      <c r="V13">
+        <v>765.1584020054645</v>
+      </c>
+      <c r="W13">
+        <v>760.58592681967207</v>
+      </c>
+      <c r="X13">
+        <v>664.83968575956283</v>
+      </c>
+      <c r="Y13">
+        <v>547.56967893989076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>439.5954229672131</v>
+      </c>
+      <c r="C14">
+        <v>406.62836855737697</v>
+      </c>
+      <c r="D14">
+        <v>365.58643869125677</v>
+      </c>
+      <c r="E14">
+        <v>303.6641435655738</v>
+      </c>
+      <c r="F14">
+        <v>231.80063021038251</v>
+      </c>
+      <c r="G14">
+        <v>160.2478019262295</v>
+      </c>
+      <c r="H14">
+        <v>88.328689084699448</v>
+      </c>
+      <c r="I14">
+        <v>59.805955382513673</v>
+      </c>
+      <c r="J14">
+        <v>46.683465336065566</v>
+      </c>
+      <c r="K14">
+        <v>29.9170983579235</v>
+      </c>
+      <c r="L14">
+        <v>14.066014060109289</v>
+      </c>
+      <c r="M14">
+        <v>5.1443204726775953</v>
+      </c>
+      <c r="N14">
+        <v>1.661042355191257</v>
+      </c>
+      <c r="O14">
+        <v>0.31414906830601091</v>
+      </c>
+      <c r="P14">
+        <v>1.4846081775956279</v>
+      </c>
+      <c r="Q14">
+        <v>8.0837663852459034</v>
+      </c>
+      <c r="R14">
+        <v>33.910779431693989</v>
+      </c>
+      <c r="S14">
+        <v>102.8264885191257</v>
+      </c>
+      <c r="T14">
+        <v>232.78925348360659</v>
+      </c>
+      <c r="U14">
+        <v>408.06885693989068</v>
+      </c>
+      <c r="V14">
+        <v>524.20941315846994</v>
+      </c>
+      <c r="W14">
+        <v>540.84119672131146</v>
+      </c>
+      <c r="X14">
+        <v>504.24714209016389</v>
+      </c>
+      <c r="Y14">
+        <v>463.65241419398899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>568.96118339344252</v>
+      </c>
+      <c r="C15">
+        <v>579.82054984153012</v>
+      </c>
+      <c r="D15">
+        <v>519.49601779234979</v>
+      </c>
+      <c r="E15">
+        <v>425.49821010382522</v>
+      </c>
+      <c r="F15">
+        <v>299.80625457923497</v>
+      </c>
+      <c r="G15">
+        <v>135.20521445901639</v>
+      </c>
+      <c r="H15">
+        <v>46.415830543715849</v>
+      </c>
+      <c r="I15">
+        <v>20.615177497267759</v>
+      </c>
+      <c r="J15">
+        <v>27.009689303278691</v>
+      </c>
+      <c r="K15">
+        <v>29.492794385245901</v>
+      </c>
+      <c r="L15">
+        <v>16.586750603825141</v>
+      </c>
+      <c r="M15">
+        <v>6.3016716939890713</v>
+      </c>
+      <c r="N15">
+        <v>2.1032977267759572</v>
+      </c>
+      <c r="O15">
+        <v>0.40411895355191252</v>
+      </c>
+      <c r="P15">
+        <v>2.060816254098361</v>
+      </c>
+      <c r="Q15">
+        <v>9.6204075792349713</v>
+      </c>
+      <c r="R15">
+        <v>27.386673079234971</v>
+      </c>
+      <c r="S15">
+        <v>55.573275622950817</v>
+      </c>
+      <c r="T15">
+        <v>66.806035849726769</v>
+      </c>
+      <c r="U15">
+        <v>50.959246650273229</v>
+      </c>
+      <c r="V15">
+        <v>107.19501327868851</v>
+      </c>
+      <c r="W15">
+        <v>256.96144267213111</v>
+      </c>
+      <c r="X15">
+        <v>466.0700082759563</v>
+      </c>
+      <c r="Y15">
+        <v>577.08234687431684</v>
       </c>
     </row>
   </sheetData>
@@ -2438,10 +7671,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2454,12 +7687,12 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2536,395 +7769,318 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>183347848.77849999</v>
+        <v>500.95040649863392</v>
       </c>
       <c r="C5">
-        <v>128003884.0635</v>
+        <v>349.73738815163938</v>
       </c>
       <c r="D5">
-        <v>83983276.350099996</v>
+        <v>229.4625036887978</v>
       </c>
       <c r="E5">
-        <v>51267479.013899997</v>
+        <v>140.0750792729508</v>
       </c>
       <c r="F5">
-        <v>30003482.2916</v>
+        <v>81.976727572677589</v>
       </c>
       <c r="G5">
-        <v>24126309.880800001</v>
+        <v>65.918879455737709</v>
       </c>
       <c r="H5">
-        <v>21138588.8149</v>
+        <v>57.755707144535513</v>
       </c>
       <c r="I5">
-        <v>18569148.127599999</v>
+        <v>50.735377397814197</v>
       </c>
       <c r="J5">
-        <v>20794572.7689</v>
+        <v>56.815772592622963</v>
       </c>
       <c r="K5">
-        <v>53947812.702699997</v>
+        <v>147.39839536256829</v>
       </c>
       <c r="L5">
-        <v>80844917.684900001</v>
+        <v>220.8877532374317</v>
       </c>
       <c r="M5">
-        <v>86650830.084399998</v>
+        <v>236.75090186994541</v>
       </c>
       <c r="N5">
-        <v>83120633.810800001</v>
+        <v>227.10555686010929</v>
       </c>
       <c r="O5">
-        <v>73401669.237499997</v>
+        <v>200.55100884562839</v>
       </c>
       <c r="P5">
-        <v>74013861.322999999</v>
+        <v>202.2236648169399</v>
       </c>
       <c r="Q5">
-        <v>88761086.430299997</v>
+        <v>242.5166295909836</v>
       </c>
       <c r="R5">
-        <v>105738054.109</v>
+        <v>288.90178718306009</v>
       </c>
       <c r="S5">
-        <v>195872250.7493</v>
+        <v>535.17008401448084</v>
       </c>
       <c r="T5">
-        <v>284297726.01160002</v>
+        <v>776.76974320109298</v>
       </c>
       <c r="U5">
-        <v>417709287.73769999</v>
+        <v>1141.2822069336071</v>
       </c>
       <c r="V5">
-        <v>532050101.91729999</v>
+        <v>1453.6888030527321</v>
       </c>
       <c r="W5">
-        <v>388547994.62279999</v>
+        <v>1061.606542685246</v>
       </c>
       <c r="X5">
-        <v>331038764.57959998</v>
+        <v>904.47749885136614</v>
       </c>
       <c r="Y5">
-        <v>244201232.02669999</v>
+        <v>667.21648094726766</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>186573418.6997</v>
+        <v>509.76343907021862</v>
       </c>
       <c r="C6">
-        <v>160543245.74559999</v>
+        <v>438.64274793879781</v>
       </c>
       <c r="D6">
-        <v>139160745.4734</v>
+        <v>380.22061604754089</v>
       </c>
       <c r="E6">
-        <v>114584073.51980001</v>
+        <v>313.07123912513657</v>
       </c>
       <c r="F6">
-        <v>85268153.934499994</v>
+        <v>232.97309818169401</v>
       </c>
       <c r="G6">
-        <v>56750411.860200003</v>
+        <v>155.05577010983609</v>
       </c>
       <c r="H6">
-        <v>32094037.706099998</v>
+        <v>87.688627612295065</v>
       </c>
       <c r="I6">
-        <v>23529549.651000001</v>
+        <v>64.288387024590165</v>
       </c>
       <c r="J6">
-        <v>28902655.549600001</v>
+        <v>78.969004233879772</v>
       </c>
       <c r="K6">
-        <v>58984425.042499997</v>
+        <v>161.1596312636612</v>
       </c>
       <c r="L6">
-        <v>81310747.58039999</v>
+        <v>222.16051251475409</v>
       </c>
       <c r="M6">
-        <v>86381852.02229999</v>
+        <v>236.01598913196719</v>
       </c>
       <c r="N6">
-        <v>83630599.813299999</v>
+        <v>228.49890659371579</v>
       </c>
       <c r="O6">
-        <v>73305197.7095</v>
+        <v>200.28742543579239</v>
       </c>
       <c r="P6">
-        <v>72924538.818700001</v>
+        <v>199.24737382158469</v>
       </c>
       <c r="Q6">
-        <v>86787199.043300003</v>
+        <v>237.12349465382511</v>
       </c>
       <c r="R6">
-        <v>98941766.918900013</v>
+        <v>270.33269649972681</v>
       </c>
       <c r="S6">
-        <v>170193384.29679999</v>
+        <v>465.00924671256831</v>
       </c>
       <c r="T6">
-        <v>238062365.8752</v>
+        <v>650.44362260983598</v>
       </c>
       <c r="U6">
-        <v>337730531.87919998</v>
+        <v>922.76101606338807</v>
       </c>
       <c r="V6">
-        <v>429745624.28869998</v>
+        <v>1174.168372373497</v>
       </c>
       <c r="W6">
-        <v>310341232.03039998</v>
+        <v>847.92686347103836</v>
       </c>
       <c r="X6">
-        <v>267579059.91639999</v>
+        <v>731.09032764043718</v>
       </c>
       <c r="Y6">
-        <v>214009259.82190001</v>
+        <v>584.72475361174861</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>174399914.8073</v>
+        <v>476.50249947349721</v>
       </c>
       <c r="C7">
-        <v>174690293.8655</v>
+        <v>477.29588487841528</v>
       </c>
       <c r="D7">
-        <v>165386587.4815</v>
+        <v>451.87592208060107</v>
       </c>
       <c r="E7">
-        <v>135530941.62830001</v>
+        <v>370.30311920300551</v>
       </c>
       <c r="F7">
-        <v>96619753.05780001</v>
+        <v>263.98839633278692</v>
       </c>
       <c r="G7">
-        <v>58849268.037799999</v>
+        <v>160.79034983005471</v>
       </c>
       <c r="H7">
-        <v>25658318.3303</v>
+        <v>70.104694891530045</v>
       </c>
       <c r="I7">
-        <v>13840062.395199999</v>
+        <v>37.814378128961749</v>
       </c>
       <c r="J7">
-        <v>18504955.243000001</v>
+        <v>50.559987002732242</v>
       </c>
       <c r="K7">
-        <v>46779092.831200004</v>
+        <v>127.8117290469945</v>
       </c>
       <c r="L7">
-        <v>72829674.063500002</v>
+        <v>198.98818050136609</v>
       </c>
       <c r="M7">
-        <v>74975662.876300007</v>
+        <v>204.85153791338789</v>
       </c>
       <c r="N7">
-        <v>73435001.488600001</v>
+        <v>200.64208056994531</v>
       </c>
       <c r="O7">
-        <v>62420454.4965</v>
+        <v>170.54768988114751</v>
       </c>
       <c r="P7">
-        <v>61574108.063000001</v>
+        <v>168.23526793169401</v>
       </c>
       <c r="Q7">
-        <v>75366861.754899994</v>
+        <v>205.92038730846991</v>
       </c>
       <c r="R7">
-        <v>89016150.283600003</v>
+        <v>243.21352536502741</v>
       </c>
       <c r="S7">
-        <v>126202487.7281</v>
+        <v>344.81554024071039</v>
       </c>
       <c r="T7">
-        <v>176213981.3594</v>
+        <v>481.45896546284149</v>
       </c>
       <c r="U7">
-        <v>225818138.27959999</v>
+        <v>616.98944885136621</v>
       </c>
       <c r="V7">
-        <v>252830655.77070001</v>
+        <v>690.79414144999998</v>
       </c>
       <c r="W7">
-        <v>209488951.07179999</v>
+        <v>572.37418325628414</v>
       </c>
       <c r="X7">
-        <v>183890107.65380001</v>
+        <v>502.43198812513663</v>
       </c>
       <c r="Y7">
-        <v>202476858.65110001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>-12173503.8924</v>
-      </c>
-      <c r="C8">
-        <v>14147048.11990002</v>
-      </c>
-      <c r="D8">
-        <v>26225842.008099999</v>
-      </c>
-      <c r="E8">
-        <v>20946868.1085</v>
-      </c>
-      <c r="F8">
-        <v>11351599.12330002</v>
-      </c>
-      <c r="G8">
-        <v>2098856.1775999959</v>
-      </c>
-      <c r="H8">
-        <v>-6435719.3757999949</v>
-      </c>
-      <c r="I8">
-        <v>-9689487.2558000013</v>
-      </c>
-      <c r="J8">
-        <v>-10397700.306600001</v>
-      </c>
-      <c r="K8">
-        <v>-12205332.211300001</v>
-      </c>
-      <c r="L8">
-        <v>-8481073.5168999881</v>
-      </c>
-      <c r="M8">
-        <v>-11406189.145999979</v>
-      </c>
-      <c r="N8">
-        <v>-10195598.3247</v>
-      </c>
-      <c r="O8">
-        <v>-10884743.213</v>
-      </c>
-      <c r="P8">
-        <v>-11350430.7557</v>
-      </c>
-      <c r="Q8">
-        <v>-11420337.288400009</v>
-      </c>
-      <c r="R8">
-        <v>-9925616.6353000104</v>
-      </c>
-      <c r="S8">
-        <v>-43990896.568699993</v>
-      </c>
-      <c r="T8">
-        <v>-61848384.515799969</v>
-      </c>
-      <c r="U8">
-        <v>-111912393.5996</v>
-      </c>
-      <c r="V8">
-        <v>-176914968.51800001</v>
-      </c>
-      <c r="W8">
-        <v>-100852280.9586</v>
-      </c>
-      <c r="X8">
-        <v>-83688952.262599975</v>
-      </c>
-      <c r="Y8">
-        <v>-11532401.170799971</v>
+        <v>553.21546079535517</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-9075577.2484000027</v>
+        <v>26.845769172677599</v>
       </c>
       <c r="C9">
-        <v>14147048.11990002</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>26225842.008099999</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>20946868.1085</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>11340104.467100009</v>
+        <v>0.28981745655737712</v>
       </c>
       <c r="G9">
-        <v>2421817.2648999989</v>
+        <v>9.9406149530054648</v>
       </c>
       <c r="H9">
-        <v>-6161798.0416999981</v>
+        <v>5.3532151218579234</v>
       </c>
       <c r="I9">
-        <v>-9426374.7796</v>
+        <v>5.4979651333333326</v>
       </c>
       <c r="J9">
-        <v>-10238127.9684</v>
+        <v>27.734301867486341</v>
       </c>
       <c r="K9">
-        <v>-6743165.1752000004</v>
+        <v>135.2785895437159</v>
       </c>
       <c r="L9">
-        <v>-1752074.4003999999</v>
+        <v>216.92725319863391</v>
       </c>
       <c r="M9">
-        <v>-518733.16580000008</v>
+        <v>235.71273744890709</v>
       </c>
       <c r="N9">
-        <v>-106683.71709999999</v>
+        <v>226.9283215647541</v>
       </c>
       <c r="O9">
-        <v>-33098.791699999987</v>
+        <v>200.37126844808739</v>
       </c>
       <c r="P9">
-        <v>-65148.098699999973</v>
+        <v>199.2537853314208</v>
       </c>
       <c r="Q9">
-        <v>-317282.45250000007</v>
+        <v>229.4408487773224</v>
       </c>
       <c r="R9">
-        <v>-2333338.4988000002</v>
+        <v>239.30042253442619</v>
       </c>
       <c r="S9">
-        <v>-19510458.480099998</v>
+        <v>364.99088513852462</v>
       </c>
       <c r="T9">
-        <v>-47275372.385499999</v>
+        <v>409.06260259644807</v>
       </c>
       <c r="U9">
-        <v>-93594986.490800008</v>
+        <v>504.81718697131151</v>
       </c>
       <c r="V9">
-        <v>-144516758.6268</v>
+        <v>525.55707660081964</v>
       </c>
       <c r="W9">
-        <v>-87380895.713499993</v>
+        <v>265.24803909918029</v>
       </c>
       <c r="X9">
-        <v>-73943245.096699983</v>
+        <v>146.43916684289621</v>
       </c>
       <c r="Y9">
-        <v>-9265534.4454999864</v>
+        <v>85.143017586065568</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-3097926.6439999989</v>
+        <v>37.091795876502736</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2936,64 +8092,372 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>11494.656199999999</v>
+        <v>0.1619115989071038</v>
       </c>
       <c r="G10">
-        <v>-322961.08730000019</v>
+        <v>8.5508231997267767</v>
       </c>
       <c r="H10">
-        <v>-273921.33409999963</v>
+        <v>6.6379179964480874</v>
       </c>
       <c r="I10">
-        <v>-263112.47619999992</v>
+        <v>5.1483344103825139</v>
       </c>
       <c r="J10">
-        <v>-159572.33819999921</v>
+        <v>23.090737733060109</v>
       </c>
       <c r="K10">
-        <v>-5462167.0361000001</v>
+        <v>120.65991287704919</v>
       </c>
       <c r="L10">
-        <v>-6728999.1164999902</v>
+        <v>205.0277552448087</v>
       </c>
       <c r="M10">
-        <v>-10887455.980199991</v>
+        <v>229.6197259576503</v>
       </c>
       <c r="N10">
-        <v>-10088914.6076</v>
+        <v>226.41878525655741</v>
       </c>
       <c r="O10">
-        <v>-10851644.42129999</v>
+        <v>199.91666622322401</v>
       </c>
       <c r="P10">
-        <v>-11285282.657</v>
+        <v>197.4710835948087</v>
       </c>
       <c r="Q10">
-        <v>-11103054.835900011</v>
+        <v>229.19424923852461</v>
       </c>
       <c r="R10">
-        <v>-7592278.136500001</v>
+        <v>239.34487903934431</v>
       </c>
       <c r="S10">
-        <v>-24480438.088599991</v>
+        <v>356.23288074535509</v>
       </c>
       <c r="T10">
-        <v>-14573012.130299989</v>
+        <v>410.53950909207651</v>
       </c>
       <c r="U10">
-        <v>-18317407.10879999</v>
+        <v>497.70580982322412</v>
       </c>
       <c r="V10">
-        <v>-32398209.89120001</v>
+        <v>539.16506755710384</v>
       </c>
       <c r="W10">
-        <v>-13471385.24509999</v>
+        <v>282.12589860601088</v>
       </c>
       <c r="X10">
-        <v>-9745707.1658999994</v>
+        <v>156.75404766830599</v>
       </c>
       <c r="Y10">
-        <v>-2266866.7252999991</v>
+        <v>93.431793026775964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>28.6275154284153</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.19331776338797821</v>
+      </c>
+      <c r="G11">
+        <v>7.668415857377048</v>
+      </c>
+      <c r="H11">
+        <v>5.8894990508196727</v>
+      </c>
+      <c r="I11">
+        <v>4.4294478633879786</v>
+      </c>
+      <c r="J11">
+        <v>22.654747737978141</v>
+      </c>
+      <c r="K11">
+        <v>105.7359592265027</v>
+      </c>
+      <c r="L11">
+        <v>186.64251175710379</v>
+      </c>
+      <c r="M11">
+        <v>199.87257847076501</v>
+      </c>
+      <c r="N11">
+        <v>198.85344479863389</v>
+      </c>
+      <c r="O11">
+        <v>170.26736452568301</v>
+      </c>
+      <c r="P11">
+        <v>166.6369779745902</v>
+      </c>
+      <c r="Q11">
+        <v>198.85803383989071</v>
+      </c>
+      <c r="R11">
+        <v>218.60094970464479</v>
+      </c>
+      <c r="S11">
+        <v>289.34643788032793</v>
+      </c>
+      <c r="T11">
+        <v>370.72253605846998</v>
+      </c>
+      <c r="U11">
+        <v>447.65824941666671</v>
+      </c>
+      <c r="V11">
+        <v>450.64536840081962</v>
+      </c>
+      <c r="W11">
+        <v>245.31883509480869</v>
+      </c>
+      <c r="X11">
+        <v>130.12643246092901</v>
+      </c>
+      <c r="Y11">
+        <v>87.238168094262306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>474.10463732595628</v>
+      </c>
+      <c r="C13">
+        <v>349.73738815163938</v>
+      </c>
+      <c r="D13">
+        <v>229.4625036887978</v>
+      </c>
+      <c r="E13">
+        <v>140.0750792729508</v>
+      </c>
+      <c r="F13">
+        <v>81.686910116120217</v>
+      </c>
+      <c r="G13">
+        <v>55.978264502732237</v>
+      </c>
+      <c r="H13">
+        <v>52.402492022677592</v>
+      </c>
+      <c r="I13">
+        <v>45.237412264480866</v>
+      </c>
+      <c r="J13">
+        <v>29.081470725136619</v>
+      </c>
+      <c r="K13">
+        <v>12.119805818852461</v>
+      </c>
+      <c r="L13">
+        <v>3.960500038797814</v>
+      </c>
+      <c r="M13">
+        <v>1.038164421038251</v>
+      </c>
+      <c r="N13">
+        <v>0.17723529535519131</v>
+      </c>
+      <c r="O13">
+        <v>0.17974039754098359</v>
+      </c>
+      <c r="P13">
+        <v>2.969879485519126</v>
+      </c>
+      <c r="Q13">
+        <v>13.075780813661201</v>
+      </c>
+      <c r="R13">
+        <v>49.601364648633883</v>
+      </c>
+      <c r="S13">
+        <v>170.1791988759563</v>
+      </c>
+      <c r="T13">
+        <v>367.70714060464479</v>
+      </c>
+      <c r="U13">
+        <v>636.46501996229506</v>
+      </c>
+      <c r="V13">
+        <v>928.13172645191253</v>
+      </c>
+      <c r="W13">
+        <v>796.35850358606558</v>
+      </c>
+      <c r="X13">
+        <v>758.03833200846998</v>
+      </c>
+      <c r="Y13">
+        <v>582.07346336120213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>472.67164319371591</v>
+      </c>
+      <c r="C14">
+        <v>438.64274793879781</v>
+      </c>
+      <c r="D14">
+        <v>380.22061604754089</v>
+      </c>
+      <c r="E14">
+        <v>313.07123912513657</v>
+      </c>
+      <c r="F14">
+        <v>232.81118658278689</v>
+      </c>
+      <c r="G14">
+        <v>146.50494691010931</v>
+      </c>
+      <c r="H14">
+        <v>81.050709615846984</v>
+      </c>
+      <c r="I14">
+        <v>59.140052614207647</v>
+      </c>
+      <c r="J14">
+        <v>55.87826650081967</v>
+      </c>
+      <c r="K14">
+        <v>40.499718386612031</v>
+      </c>
+      <c r="L14">
+        <v>17.132757269945351</v>
+      </c>
+      <c r="M14">
+        <v>6.3962631743169407</v>
+      </c>
+      <c r="N14">
+        <v>2.0801213371584701</v>
+      </c>
+      <c r="O14">
+        <v>0.37075921256830602</v>
+      </c>
+      <c r="P14">
+        <v>1.7762902267759559</v>
+      </c>
+      <c r="Q14">
+        <v>7.9292454153005467</v>
+      </c>
+      <c r="R14">
+        <v>30.987817460382509</v>
+      </c>
+      <c r="S14">
+        <v>108.7763659672131</v>
+      </c>
+      <c r="T14">
+        <v>239.9041135177595</v>
+      </c>
+      <c r="U14">
+        <v>425.05520624016401</v>
+      </c>
+      <c r="V14">
+        <v>635.00330481639344</v>
+      </c>
+      <c r="W14">
+        <v>565.80096486502737</v>
+      </c>
+      <c r="X14">
+        <v>574.33627997213114</v>
+      </c>
+      <c r="Y14">
+        <v>491.29296058497272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>447.87498404508187</v>
+      </c>
+      <c r="C15">
+        <v>477.29588487841528</v>
+      </c>
+      <c r="D15">
+        <v>451.87592208060107</v>
+      </c>
+      <c r="E15">
+        <v>370.30311920300551</v>
+      </c>
+      <c r="F15">
+        <v>263.79507856939892</v>
+      </c>
+      <c r="G15">
+        <v>153.1219339726776</v>
+      </c>
+      <c r="H15">
+        <v>64.215195840710379</v>
+      </c>
+      <c r="I15">
+        <v>33.384930265573772</v>
+      </c>
+      <c r="J15">
+        <v>27.905239264754101</v>
+      </c>
+      <c r="K15">
+        <v>22.0757698204918</v>
+      </c>
+      <c r="L15">
+        <v>12.345668744262291</v>
+      </c>
+      <c r="M15">
+        <v>4.9789594426229504</v>
+      </c>
+      <c r="N15">
+        <v>1.7886357713114751</v>
+      </c>
+      <c r="O15">
+        <v>0.2803253554644809</v>
+      </c>
+      <c r="P15">
+        <v>1.5982899571038249</v>
+      </c>
+      <c r="Q15">
+        <v>7.0623534685792348</v>
+      </c>
+      <c r="R15">
+        <v>24.612575660382511</v>
+      </c>
+      <c r="S15">
+        <v>55.469102360382507</v>
+      </c>
+      <c r="T15">
+        <v>110.73642940437161</v>
+      </c>
+      <c r="U15">
+        <v>169.3311994346995</v>
+      </c>
+      <c r="V15">
+        <v>240.14877304918039</v>
+      </c>
+      <c r="W15">
+        <v>327.05534816147542</v>
+      </c>
+      <c r="X15">
+        <v>372.30555566420759</v>
+      </c>
+      <c r="Y15">
+        <v>465.97729270109289</v>
       </c>
     </row>
   </sheetData>
@@ -3004,37 +8468,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>45.952440162644614</v>
@@ -3051,7 +8517,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>29.700655760685311</v>
@@ -3068,7 +8534,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>15.03349669256621</v>
@@ -3081,10 +8547,77 @@
       </c>
       <c r="E6">
         <v>0.98757385439215506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>45.952440162644614</v>
+      </c>
+      <c r="D12">
+        <v>53.182249329321031</v>
+      </c>
+      <c r="E12">
+        <v>57.097025213509397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>29.700655760685311</v>
+      </c>
+      <c r="D13">
+        <v>30.61258457622494</v>
+      </c>
+      <c r="E13">
+        <v>30.593514680440869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>15.03349669256621</v>
+      </c>
+      <c r="D14">
+        <v>15.222655627937041</v>
+      </c>
+      <c r="E14">
+        <v>15.22854859053829</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>57.097025213509397</v>
+      </c>
+      <c r="E20">
+        <v>30.593514680440869</v>
+      </c>
+      <c r="F20">
+        <v>15.22854859053829</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>53.182249329321031</v>
+      </c>
+      <c r="E21">
+        <v>30.61258457622494</v>
+      </c>
+      <c r="F21">
+        <v>15.222655627937041</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>45.952440162644614</v>
+      </c>
+      <c r="E22">
+        <v>29.700655760685311</v>
+      </c>
+      <c r="F22">
+        <v>15.03349669256621</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3092,35 +8625,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>43.900523418382612</v>
@@ -3137,7 +8679,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>27.485888263846341</v>
@@ -3154,7 +8696,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>15.4695413165106</v>
@@ -3171,5 +8713,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/output/results_epex.xlsx
+++ b/output/results_epex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidsanders/Documents/GitHub/masterarbeit-flex-kpis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E652C7E8-F0B5-234E-95C6-175C35989A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D848D-6773-1A4B-9A5D-C482FADC4B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1220" windowWidth="27340" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="1220" windowWidth="27340" windowHeight="18760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intraday_Weeks" sheetId="1" r:id="rId1"/>
@@ -3707,7 +3707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -5997,7 +5997,7 @@
         <v>-5022.2430279999971</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="B8:AG8" si="0">C5-C7</f>
+        <f t="shared" ref="C8:AG8" si="0">C5-C7</f>
         <v>-4436.964301</v>
       </c>
       <c r="D8">
@@ -6878,8 +6878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:Y15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8470,8 +8470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
